--- a/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.999305405841569</v>
+      </c>
+      <c r="D3">
         <v>0.9993506860795215</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1.001551154601444</v>
+      </c>
+      <c r="F3">
+        <v>0.9980244968296421</v>
+      </c>
+      <c r="G3">
         <v>1.002730908731373</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>0.9993506860795215</v>
+      </c>
+      <c r="I3">
         <v>0.9992867728876543</v>
-      </c>
-      <c r="F3">
-        <v>0.9993506860795215</v>
-      </c>
-      <c r="G3">
-        <v>0.9980244968296421</v>
-      </c>
-      <c r="H3">
-        <v>1.001551154601444</v>
-      </c>
-      <c r="I3">
-        <v>0.999305405841569</v>
       </c>
       <c r="J3">
         <v>1.002730908731373</v>
@@ -728,7 +680,7 @@
         <v>1.000041570828534</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9986595878651845</v>
+      </c>
+      <c r="D4">
         <v>0.9987660226299283</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.002993438835808</v>
+      </c>
+      <c r="F4">
+        <v>0.9961697252682862</v>
+      </c>
+      <c r="G4">
         <v>1.005267007801327</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>0.9987660226299283</v>
+      </c>
+      <c r="I4">
         <v>0.9986157903374853</v>
-      </c>
-      <c r="F4">
-        <v>0.9987660226299283</v>
-      </c>
-      <c r="G4">
-        <v>0.9961697252682862</v>
-      </c>
-      <c r="H4">
-        <v>1.002993438835808</v>
-      </c>
-      <c r="I4">
-        <v>0.9986595878651846</v>
       </c>
       <c r="J4">
         <v>1.005267007801327</v>
@@ -790,7 +742,7 @@
         <v>1.000078595456337</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9974288967376168</v>
+      </c>
+      <c r="D5">
         <v>0.9975795900991656</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.00573909431588</v>
+      </c>
+      <c r="F5">
+        <v>0.9927126085655762</v>
+      </c>
+      <c r="G5">
         <v>1.010115980170207</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>0.9975795900991656</v>
+      </c>
+      <c r="I5">
         <v>0.9973668841847412</v>
-      </c>
-      <c r="F5">
-        <v>0.9975795900991656</v>
-      </c>
-      <c r="G5">
-        <v>0.9927126085655762</v>
-      </c>
-      <c r="H5">
-        <v>1.00573909431588</v>
-      </c>
-      <c r="I5">
-        <v>0.9974288967376168</v>
       </c>
       <c r="J5">
         <v>1.010115980170207</v>
@@ -852,7 +804,7 @@
         <v>1.000157175678865</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9962280938602887</v>
+      </c>
+      <c r="D6">
         <v>0.9964277524617765</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.008418462723975</v>
+      </c>
+      <c r="F6">
+        <v>0.9893327016328727</v>
+      </c>
+      <c r="G6">
         <v>1.014845614732181</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>0.9964277524617765</v>
+      </c>
+      <c r="I6">
         <v>0.9961459324784463</v>
-      </c>
-      <c r="F6">
-        <v>0.9964277524617765</v>
-      </c>
-      <c r="G6">
-        <v>0.9893327016328727</v>
-      </c>
-      <c r="H6">
-        <v>1.008418462723975</v>
-      </c>
-      <c r="I6">
-        <v>0.9962280938602887</v>
       </c>
       <c r="J6">
         <v>1.014845614732181</v>
@@ -914,7 +866,7 @@
         <v>1.00023309298159</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999600235855551</v>
+      </c>
+      <c r="D7">
         <v>0.9999618226932543</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>1.000089287118262</v>
+      </c>
+      <c r="F7">
+        <v>0.9998870029615898</v>
+      </c>
+      <c r="G7">
         <v>1.000157269340373</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>0.9999618226932543</v>
+      </c>
+      <c r="I7">
         <v>0.9999592836822765</v>
-      </c>
-      <c r="F7">
-        <v>0.9999618226932543</v>
-      </c>
-      <c r="G7">
-        <v>0.9998870029615897</v>
-      </c>
-      <c r="H7">
-        <v>1.000089287118262</v>
-      </c>
-      <c r="I7">
-        <v>0.9999600235855549</v>
       </c>
       <c r="J7">
         <v>1.000157269340373</v>
@@ -976,7 +928,7 @@
         <v>1.000002448230218</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999955782675539</v>
+        <v>0.9999323486020532</v>
       </c>
       <c r="D8">
-        <v>1.000257849391226</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="E8">
+        <v>1.000154032121495</v>
+      </c>
+      <c r="F8">
+        <v>0.9997794307150467</v>
+      </c>
+      <c r="G8">
+        <v>1.000257849391227</v>
+      </c>
+      <c r="H8">
+        <v>0.9999557826755389</v>
+      </c>
+      <c r="I8">
         <v>0.9999227055074312</v>
       </c>
-      <c r="F8">
-        <v>0.999955782675539</v>
-      </c>
-      <c r="G8">
-        <v>0.9997794307150468</v>
-      </c>
-      <c r="H8">
-        <v>1.000154032121495</v>
-      </c>
-      <c r="I8">
-        <v>0.9999323486020532</v>
-      </c>
       <c r="J8">
-        <v>1.000257849391226</v>
+        <v>1.000257849391227</v>
       </c>
       <c r="K8">
-        <v>0.999955782675539</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="L8">
         <v>0.9999227055074312</v>
@@ -1020,13 +972,13 @@
         <v>1.000090277449329</v>
       </c>
       <c r="O8">
-        <v>1.000111529006717</v>
+        <v>1.000111529006718</v>
       </c>
       <c r="P8">
-        <v>1.000045445858065</v>
+        <v>1.000045445858066</v>
       </c>
       <c r="Q8">
-        <v>1.000045445858065</v>
+        <v>1.000045445858066</v>
       </c>
       <c r="R8">
         <v>1.000023030062434</v>
@@ -1035,10 +987,10 @@
         <v>1.000023030062434</v>
       </c>
       <c r="T8">
-        <v>1.000000358168798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000358168799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999159281184294</v>
+      </c>
+      <c r="D9">
         <v>0.9999874677486413</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1.000195711538909</v>
+      </c>
+      <c r="F9">
+        <v>0.9996711875247756</v>
+      </c>
+      <c r="G9">
         <v>1.000306349068948</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>0.9999874677486413</v>
+      </c>
+      <c r="I9">
         <v>0.999886488041923</v>
-      </c>
-      <c r="F9">
-        <v>0.9999874677486413</v>
-      </c>
-      <c r="G9">
-        <v>0.9996711875247756</v>
-      </c>
-      <c r="H9">
-        <v>1.000195711538909</v>
-      </c>
-      <c r="I9">
-        <v>0.9999159281184294</v>
       </c>
       <c r="J9">
         <v>1.000306349068948</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999938553402711</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9998059996122507</v>
+      </c>
+      <c r="D10">
         <v>0.9999133287794005</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.000446009023549</v>
+      </c>
+      <c r="F10">
+        <v>0.999314909493777</v>
+      </c>
+      <c r="G10">
         <v>1.000725683436522</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>0.9999133287794005</v>
+      </c>
+      <c r="I10">
         <v>0.999761832616065</v>
-      </c>
-      <c r="F10">
-        <v>0.9999133287794005</v>
-      </c>
-      <c r="G10">
-        <v>0.999314909493777</v>
-      </c>
-      <c r="H10">
-        <v>1.000446009023549</v>
-      </c>
-      <c r="I10">
-        <v>0.9998059996122507</v>
       </c>
       <c r="J10">
         <v>1.000725683436522</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999946271602608</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9997255224929776</v>
+      </c>
+      <c r="D11">
         <v>1.000032890150575</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.000648207187128</v>
+      </c>
+      <c r="F11">
+        <v>0.9988250705724788</v>
+      </c>
+      <c r="G11">
         <v>1.000972546058044</v>
       </c>
-      <c r="E11">
-        <v>0.9995990357727482</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.000032890150575</v>
       </c>
-      <c r="G11">
-        <v>0.9988250705724788</v>
-      </c>
-      <c r="H11">
-        <v>1.000648207187128</v>
-      </c>
       <c r="I11">
-        <v>0.9997255224929776</v>
+        <v>0.9995990357727487</v>
       </c>
       <c r="J11">
         <v>1.000972546058044</v>
@@ -1197,7 +1149,7 @@
         <v>1.000032890150575</v>
       </c>
       <c r="L11">
-        <v>0.9995990357727482</v>
+        <v>0.9995990357727487</v>
       </c>
       <c r="M11">
         <v>1.000285790915396</v>
@@ -1215,16 +1167,16 @@
         <v>1.000201490660456</v>
       </c>
       <c r="R11">
-        <v>1.000159340532985</v>
+        <v>1.000159340532986</v>
       </c>
       <c r="S11">
-        <v>1.000159340532985</v>
+        <v>1.000159340532986</v>
       </c>
       <c r="T11">
         <v>0.9999672120389919</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9975462344759496</v>
+      </c>
+      <c r="D12">
         <v>1.001372859618926</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.00605623982872</v>
+      </c>
+      <c r="F12">
+        <v>0.9875703724547737</v>
+      </c>
+      <c r="G12">
         <v>1.008068756446385</v>
       </c>
-      <c r="E12">
+      <c r="H12">
+        <v>1.001372859618926</v>
+      </c>
+      <c r="I12">
         <v>0.9959714897542213</v>
-      </c>
-      <c r="F12">
-        <v>1.001372859618926</v>
-      </c>
-      <c r="G12">
-        <v>0.9875703724547737</v>
-      </c>
-      <c r="H12">
-        <v>1.006056239828719</v>
-      </c>
-      <c r="I12">
-        <v>0.9975462344759496</v>
       </c>
       <c r="J12">
         <v>1.008068756446385</v>
@@ -1268,7 +1220,7 @@
         <v>1.002020123100303</v>
       </c>
       <c r="O12">
-        <v>1.003365495343108</v>
+        <v>1.003365495343109</v>
       </c>
       <c r="P12">
         <v>1.001804368606511</v>
@@ -1286,7 +1238,7 @@
         <v>0.9994309920964958</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9976896484598998</v>
+        <v>0.999069688167224</v>
       </c>
       <c r="D13">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="E13">
+        <v>1.00164952496339</v>
+      </c>
+      <c r="F13">
+        <v>1.000203324007115</v>
+      </c>
+      <c r="G13">
         <v>1.004631701824764</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="I13">
         <v>0.999637608767981</v>
-      </c>
-      <c r="F13">
-        <v>0.9976896484598998</v>
-      </c>
-      <c r="G13">
-        <v>1.000203324007114</v>
-      </c>
-      <c r="H13">
-        <v>1.00164952496339</v>
-      </c>
-      <c r="I13">
-        <v>0.9990696881672242</v>
       </c>
       <c r="J13">
         <v>1.004631701824764</v>
       </c>
       <c r="K13">
-        <v>0.9976896484598998</v>
+        <v>0.9976896484598996</v>
       </c>
       <c r="L13">
         <v>0.999637608767981</v>
@@ -1339,16 +1291,16 @@
         <v>1.000652986350882</v>
       </c>
       <c r="R13">
-        <v>0.9999121518781361</v>
+        <v>0.999912151878136</v>
       </c>
       <c r="S13">
-        <v>0.9999121518781361</v>
+        <v>0.999912151878136</v>
       </c>
       <c r="T13">
         <v>1.000480249365062</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9804855012770606</v>
+      </c>
+      <c r="D14">
         <v>0.95331573258043</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>1.039289837741551</v>
+      </c>
+      <c r="F14">
+        <v>0.9861396093977098</v>
+      </c>
+      <c r="G14">
         <v>1.088649567896216</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>0.95331573258043</v>
+      </c>
+      <c r="I14">
         <v>0.9916664802301325</v>
-      </c>
-      <c r="F14">
-        <v>0.95331573258043</v>
-      </c>
-      <c r="G14">
-        <v>0.9861396093977098</v>
-      </c>
-      <c r="H14">
-        <v>1.039289837741551</v>
-      </c>
-      <c r="I14">
-        <v>0.9804855012770604</v>
       </c>
       <c r="J14">
         <v>1.088649567896216</v>
@@ -1410,7 +1362,7 @@
         <v>1.006591121520517</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9961481673531385</v>
+      </c>
+      <c r="D15">
         <v>1.006923959725468</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>1.010165461286561</v>
+      </c>
+      <c r="F15">
+        <v>0.9737194417589302</v>
+      </c>
+      <c r="G15">
         <v>1.010773047747016</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>1.006923959725468</v>
+      </c>
+      <c r="I15">
         <v>0.9917136827737578</v>
-      </c>
-      <c r="F15">
-        <v>1.006923959725468</v>
-      </c>
-      <c r="G15">
-        <v>0.9737194417589302</v>
-      </c>
-      <c r="H15">
-        <v>1.010165461286561</v>
-      </c>
-      <c r="I15">
-        <v>0.9961481673531385</v>
       </c>
       <c r="J15">
         <v>1.010773047747016</v>
@@ -1472,7 +1424,7 @@
         <v>0.9982406267741452</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998950503443115</v>
+        <v>0.9864282517106909</v>
       </c>
       <c r="D16">
-        <v>1.000072615316453</v>
+        <v>0.9871360469906418</v>
       </c>
       <c r="E16">
-        <v>1.000029660024509</v>
+        <v>1.030240679316204</v>
       </c>
       <c r="F16">
-        <v>0.9998950503443115</v>
+        <v>0.9618029706141642</v>
       </c>
       <c r="G16">
-        <v>1.000102646839725</v>
+        <v>1.05350548148229</v>
       </c>
       <c r="H16">
-        <v>1.000009951756712</v>
+        <v>0.9871360469906418</v>
       </c>
       <c r="I16">
-        <v>0.9999904149480684</v>
+        <v>0.986136991967289</v>
       </c>
       <c r="J16">
-        <v>1.000072615316453</v>
+        <v>1.05350548148229</v>
       </c>
       <c r="K16">
-        <v>0.9998950503443115</v>
+        <v>0.9871360469906418</v>
       </c>
       <c r="L16">
-        <v>1.000029660024509</v>
+        <v>0.986136991967289</v>
       </c>
       <c r="M16">
-        <v>1.000051137670481</v>
+        <v>1.01982123672479</v>
       </c>
       <c r="N16">
-        <v>1.000051137670481</v>
+        <v>1.01982123672479</v>
       </c>
       <c r="O16">
-        <v>1.000037409032558</v>
+        <v>1.023294384255261</v>
       </c>
       <c r="P16">
-        <v>0.9999991085617577</v>
+        <v>1.008926173480074</v>
       </c>
       <c r="Q16">
-        <v>0.9999991085617577</v>
+        <v>1.008926173480074</v>
       </c>
       <c r="R16">
-        <v>0.9999730940073961</v>
+        <v>1.003478641857716</v>
       </c>
       <c r="S16">
-        <v>0.9999730940073961</v>
+        <v>1.003478641857716</v>
       </c>
       <c r="T16">
-        <v>1.000016723204963</v>
+        <v>1.00087507034688</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000078226189603</v>
+        <v>0.988887281080867</v>
       </c>
       <c r="D17">
-        <v>1.000155625936137</v>
+        <v>0.9891464219985123</v>
       </c>
       <c r="E17">
-        <v>0.9998949501251413</v>
+        <v>1.024710986581199</v>
       </c>
       <c r="F17">
-        <v>1.000078226189603</v>
+        <v>0.9692004083501368</v>
       </c>
       <c r="G17">
-        <v>0.9996794601266105</v>
+        <v>1.043949066474424</v>
       </c>
       <c r="H17">
-        <v>1.000131085159456</v>
+        <v>0.9891464219985123</v>
       </c>
       <c r="I17">
-        <v>0.9999483832461453</v>
+        <v>0.9887806481179255</v>
       </c>
       <c r="J17">
-        <v>1.000155625936137</v>
+        <v>1.043949066474424</v>
       </c>
       <c r="K17">
-        <v>1.000078226189603</v>
+        <v>0.9891464219985123</v>
       </c>
       <c r="L17">
-        <v>0.9998949501251413</v>
+        <v>0.9887806481179255</v>
       </c>
       <c r="M17">
-        <v>1.000025288030639</v>
+        <v>1.016364857296175</v>
       </c>
       <c r="N17">
-        <v>1.000025288030639</v>
+        <v>1.016364857296175</v>
       </c>
       <c r="O17">
-        <v>1.000060553740245</v>
+        <v>1.019146900391183</v>
       </c>
       <c r="P17">
-        <v>1.000042934083627</v>
+        <v>1.007292045530287</v>
       </c>
       <c r="Q17">
-        <v>1.000042934083627</v>
+        <v>1.007292045530287</v>
       </c>
       <c r="R17">
-        <v>1.000051757110121</v>
+        <v>1.002755639647344</v>
       </c>
       <c r="S17">
-        <v>1.000051757110121</v>
+        <v>1.002755639647344</v>
       </c>
       <c r="T17">
-        <v>0.9999812884638489</v>
+        <v>1.000779135433844</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9995107832664486</v>
+        <v>0.9938737775840969</v>
       </c>
       <c r="D18">
-        <v>1.00102067293164</v>
+        <v>0.9932879675290621</v>
       </c>
       <c r="E18">
-        <v>0.9998715887700877</v>
+        <v>1.013505490676352</v>
       </c>
       <c r="F18">
-        <v>0.9995107832664486</v>
+        <v>0.9841132188507425</v>
       </c>
       <c r="G18">
-        <v>0.9997094954719248</v>
+        <v>1.024546574877995</v>
       </c>
       <c r="H18">
-        <v>1.000487276133189</v>
+        <v>0.9932879675290621</v>
       </c>
       <c r="I18">
-        <v>0.999766397887439</v>
+        <v>0.9941148509443483</v>
       </c>
       <c r="J18">
-        <v>1.00102067293164</v>
+        <v>1.024546574877995</v>
       </c>
       <c r="K18">
-        <v>0.9995107832664486</v>
+        <v>0.9932879675290621</v>
       </c>
       <c r="L18">
-        <v>0.9998715887700877</v>
+        <v>0.9941148509443483</v>
       </c>
       <c r="M18">
-        <v>1.000446130850864</v>
+        <v>1.009330712911172</v>
       </c>
       <c r="N18">
-        <v>1.000446130850864</v>
+        <v>1.009330712911172</v>
       </c>
       <c r="O18">
-        <v>1.000459845944972</v>
+        <v>1.010722305499565</v>
       </c>
       <c r="P18">
-        <v>1.000134348322725</v>
+        <v>1.003983131117135</v>
       </c>
       <c r="Q18">
-        <v>1.000134348322725</v>
+        <v>1.003983131117135</v>
       </c>
       <c r="R18">
-        <v>0.9999784570586562</v>
+        <v>1.001309340220117</v>
       </c>
       <c r="S18">
-        <v>0.9999784570586562</v>
+        <v>1.001309340220117</v>
       </c>
       <c r="T18">
-        <v>1.000061035743455</v>
+        <v>1.000573646743766</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9934509346339107</v>
+      </c>
+      <c r="D19">
+        <v>0.9922807468434741</v>
+      </c>
+      <c r="E19">
+        <v>1.014454976714393</v>
+      </c>
+      <c r="F19">
+        <v>0.9834642294767657</v>
+      </c>
+      <c r="G19">
+        <v>1.026294479446872</v>
+      </c>
+      <c r="H19">
+        <v>0.9922807468434741</v>
+      </c>
+      <c r="I19">
+        <v>0.9939324907859372</v>
+      </c>
+      <c r="J19">
+        <v>1.026294479446872</v>
+      </c>
+      <c r="K19">
+        <v>0.9922807468434741</v>
+      </c>
+      <c r="L19">
+        <v>0.9939324907859372</v>
+      </c>
+      <c r="M19">
+        <v>1.010113485116405</v>
+      </c>
+      <c r="N19">
+        <v>1.010113485116405</v>
+      </c>
+      <c r="O19">
+        <v>1.011560648982401</v>
+      </c>
+      <c r="P19">
+        <v>1.004169239025428</v>
+      </c>
+      <c r="Q19">
+        <v>1.004169239025428</v>
+      </c>
+      <c r="R19">
+        <v>1.00119711597994</v>
+      </c>
+      <c r="S19">
+        <v>1.00119711597994</v>
+      </c>
+      <c r="T19">
+        <v>1.000646309650226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999904149480682</v>
+      </c>
+      <c r="D20">
+        <v>0.9998950503443115</v>
+      </c>
+      <c r="E20">
+        <v>1.000009951756712</v>
+      </c>
+      <c r="F20">
+        <v>1.000102646839725</v>
+      </c>
+      <c r="G20">
+        <v>1.000072615316453</v>
+      </c>
+      <c r="H20">
+        <v>0.9998950503443115</v>
+      </c>
+      <c r="I20">
+        <v>1.000029660024509</v>
+      </c>
+      <c r="J20">
+        <v>1.000072615316453</v>
+      </c>
+      <c r="K20">
+        <v>0.9998950503443115</v>
+      </c>
+      <c r="L20">
+        <v>1.000029660024509</v>
+      </c>
+      <c r="M20">
+        <v>1.000051137670481</v>
+      </c>
+      <c r="N20">
+        <v>1.000051137670481</v>
+      </c>
+      <c r="O20">
+        <v>1.000037409032558</v>
+      </c>
+      <c r="P20">
+        <v>0.9999991085617578</v>
+      </c>
+      <c r="Q20">
+        <v>0.999999108561758</v>
+      </c>
+      <c r="R20">
+        <v>0.9999730940073963</v>
+      </c>
+      <c r="S20">
+        <v>0.9999730940073963</v>
+      </c>
+      <c r="T20">
+        <v>1.000016723204963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999483832461454</v>
+      </c>
+      <c r="D21">
+        <v>1.000078226189603</v>
+      </c>
+      <c r="E21">
+        <v>1.000131085159456</v>
+      </c>
+      <c r="F21">
+        <v>0.9996794601266105</v>
+      </c>
+      <c r="G21">
+        <v>1.000155625936138</v>
+      </c>
+      <c r="H21">
+        <v>1.000078226189603</v>
+      </c>
+      <c r="I21">
+        <v>0.9998949501251413</v>
+      </c>
+      <c r="J21">
+        <v>1.000155625936138</v>
+      </c>
+      <c r="K21">
+        <v>1.000078226189603</v>
+      </c>
+      <c r="L21">
+        <v>0.9998949501251413</v>
+      </c>
+      <c r="M21">
+        <v>1.00002528803064</v>
+      </c>
+      <c r="N21">
+        <v>1.00002528803064</v>
+      </c>
+      <c r="O21">
+        <v>1.000060553740245</v>
+      </c>
+      <c r="P21">
+        <v>1.000042934083627</v>
+      </c>
+      <c r="Q21">
+        <v>1.000042934083628</v>
+      </c>
+      <c r="R21">
+        <v>1.000051757110122</v>
+      </c>
+      <c r="S21">
+        <v>1.000051757110122</v>
+      </c>
+      <c r="T21">
+        <v>0.9999812884638491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.999766397887439</v>
+      </c>
+      <c r="D22">
+        <v>0.9995107832664485</v>
+      </c>
+      <c r="E22">
+        <v>1.00048727613319</v>
+      </c>
+      <c r="F22">
+        <v>0.9997094954719247</v>
+      </c>
+      <c r="G22">
+        <v>1.00102067293164</v>
+      </c>
+      <c r="H22">
+        <v>0.9995107832664485</v>
+      </c>
+      <c r="I22">
+        <v>0.9998715887700877</v>
+      </c>
+      <c r="J22">
+        <v>1.00102067293164</v>
+      </c>
+      <c r="K22">
+        <v>0.9995107832664485</v>
+      </c>
+      <c r="L22">
+        <v>0.9998715887700877</v>
+      </c>
+      <c r="M22">
+        <v>1.000446130850864</v>
+      </c>
+      <c r="N22">
+        <v>1.000446130850864</v>
+      </c>
+      <c r="O22">
+        <v>1.000459845944972</v>
+      </c>
+      <c r="P22">
+        <v>1.000134348322725</v>
+      </c>
+      <c r="Q22">
+        <v>1.000134348322725</v>
+      </c>
+      <c r="R22">
+        <v>0.9999784570586562</v>
+      </c>
+      <c r="S22">
+        <v>0.9999784570586562</v>
+      </c>
+      <c r="T22">
+        <v>1.000061035743455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9994234560982294</v>
+      </c>
+      <c r="D23">
         <v>0.998401280625426</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.001157466484184</v>
+      </c>
+      <c r="F23">
+        <v>0.9998072773705247</v>
+      </c>
+      <c r="G23">
         <v>1.002658846513071</v>
       </c>
-      <c r="E19">
-        <v>0.9998441056380167</v>
-      </c>
-      <c r="F19">
+      <c r="H23">
         <v>0.998401280625426</v>
       </c>
-      <c r="G19">
-        <v>0.9998072773705247</v>
-      </c>
-      <c r="H19">
-        <v>1.001157466484184</v>
-      </c>
-      <c r="I19">
-        <v>0.9994234560982294</v>
-      </c>
-      <c r="J19">
+      <c r="I23">
+        <v>0.9998441056380164</v>
+      </c>
+      <c r="J23">
         <v>1.002658846513071</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.998401280625426</v>
       </c>
-      <c r="L19">
-        <v>0.9998441056380167</v>
-      </c>
-      <c r="M19">
+      <c r="L23">
+        <v>0.9998441056380164</v>
+      </c>
+      <c r="M23">
         <v>1.001251476075544</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.001251476075544</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.001220139545091</v>
       </c>
-      <c r="P19">
+      <c r="P23">
+        <v>1.000301410925504</v>
+      </c>
+      <c r="Q23">
         <v>1.000301410925505</v>
       </c>
-      <c r="Q19">
-        <v>1.000301410925505</v>
-      </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9998263783504849</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998263783504849</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000215405454909</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999305405841569</v>
+        <v>0.9933098346253605</v>
       </c>
       <c r="D3">
-        <v>0.9993506860795215</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="E3">
-        <v>1.001551154601444</v>
+        <v>1.014780726729103</v>
       </c>
       <c r="F3">
-        <v>0.9980244968296421</v>
+        <v>0.9824916297478387</v>
       </c>
       <c r="G3">
-        <v>1.002730908731373</v>
+        <v>1.026742270115273</v>
       </c>
       <c r="H3">
-        <v>0.9993506860795215</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="I3">
-        <v>0.9992867728876543</v>
+        <v>0.9935524990850171</v>
       </c>
       <c r="J3">
-        <v>1.002730908731373</v>
+        <v>1.026742270115273</v>
       </c>
       <c r="K3">
-        <v>0.9993506860795215</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="L3">
-        <v>0.9992867728876543</v>
+        <v>0.9935524990850171</v>
       </c>
       <c r="M3">
-        <v>1.001008840809514</v>
+        <v>1.010147384600145</v>
       </c>
       <c r="N3">
-        <v>1.001008840809514</v>
+        <v>1.010147384600145</v>
       </c>
       <c r="O3">
-        <v>1.001189612073491</v>
+        <v>1.011691831976464</v>
       </c>
       <c r="P3">
-        <v>1.000456122566183</v>
+        <v>1.00433831004323</v>
       </c>
       <c r="Q3">
-        <v>1.000456122566183</v>
+        <v>1.00433831004323</v>
       </c>
       <c r="R3">
-        <v>1.000179763444518</v>
+        <v>1.001433772764772</v>
       </c>
       <c r="S3">
-        <v>1.000179763444518</v>
+        <v>1.001433772764772</v>
       </c>
       <c r="T3">
-        <v>1.000041570828534</v>
+        <v>1.000599520205332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9986595878651845</v>
+        <v>0.9935944739284404</v>
       </c>
       <c r="D4">
-        <v>0.9987660226299283</v>
+        <v>0.9929509761433146</v>
       </c>
       <c r="E4">
-        <v>1.002993438835808</v>
+        <v>1.014130218982486</v>
       </c>
       <c r="F4">
-        <v>0.9961697252682862</v>
+        <v>0.9833862947800979</v>
       </c>
       <c r="G4">
-        <v>1.005267007801327</v>
+        <v>1.025654692828922</v>
       </c>
       <c r="H4">
-        <v>0.9987660226299283</v>
+        <v>0.9929509761433146</v>
       </c>
       <c r="I4">
-        <v>0.9986157903374853</v>
+        <v>0.9938592880655954</v>
       </c>
       <c r="J4">
-        <v>1.005267007801327</v>
+        <v>1.025654692828922</v>
       </c>
       <c r="K4">
-        <v>0.9987660226299283</v>
+        <v>0.9929509761433146</v>
       </c>
       <c r="L4">
-        <v>0.9986157903374853</v>
+        <v>0.9938592880655954</v>
       </c>
       <c r="M4">
-        <v>1.001941399069406</v>
+        <v>1.009756990447259</v>
       </c>
       <c r="N4">
-        <v>1.001941399069406</v>
+        <v>1.009756990447259</v>
       </c>
       <c r="O4">
-        <v>1.00229207899154</v>
+        <v>1.011214733292334</v>
       </c>
       <c r="P4">
-        <v>1.000882940256247</v>
+        <v>1.004154985679277</v>
       </c>
       <c r="Q4">
-        <v>1.000882940256247</v>
+        <v>1.004154985679277</v>
       </c>
       <c r="R4">
-        <v>1.000353710849667</v>
+        <v>1.001353983295287</v>
       </c>
       <c r="S4">
-        <v>1.000353710849667</v>
+        <v>1.001353983295287</v>
       </c>
       <c r="T4">
-        <v>1.000078595456337</v>
+        <v>1.000595990788143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9974288967376168</v>
+        <v>0.9927707387870627</v>
       </c>
       <c r="D5">
-        <v>0.9975795900991656</v>
+        <v>0.9923033812938006</v>
       </c>
       <c r="E5">
-        <v>1.00573909431588</v>
+        <v>1.016014824932613</v>
       </c>
       <c r="F5">
-        <v>0.9927126085655762</v>
+        <v>0.9807708844474405</v>
       </c>
       <c r="G5">
-        <v>1.010115980170207</v>
+        <v>1.028795332452831</v>
       </c>
       <c r="H5">
-        <v>0.9975795900991656</v>
+        <v>0.9923033812938006</v>
       </c>
       <c r="I5">
-        <v>0.9973668841847412</v>
+        <v>0.9929630665498647</v>
       </c>
       <c r="J5">
-        <v>1.010115980170207</v>
+        <v>1.028795332452831</v>
       </c>
       <c r="K5">
-        <v>0.9975795900991656</v>
+        <v>0.9923033812938006</v>
       </c>
       <c r="L5">
-        <v>0.9973668841847412</v>
+        <v>0.9929630665498647</v>
       </c>
       <c r="M5">
-        <v>1.003741432177474</v>
+        <v>1.010879199501348</v>
       </c>
       <c r="N5">
-        <v>1.003741432177474</v>
+        <v>1.010879199501348</v>
       </c>
       <c r="O5">
-        <v>1.004407319556943</v>
+        <v>1.012591074645103</v>
       </c>
       <c r="P5">
-        <v>1.001687484818038</v>
+        <v>1.004687260098832</v>
       </c>
       <c r="Q5">
-        <v>1.001687484818038</v>
+        <v>1.004687260098832</v>
       </c>
       <c r="R5">
-        <v>1.00066051113832</v>
+        <v>1.001591290397574</v>
       </c>
       <c r="S5">
-        <v>1.00066051113832</v>
+        <v>1.001591290397574</v>
       </c>
       <c r="T5">
-        <v>1.000157175678865</v>
+        <v>1.000603038077269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9962280938602887</v>
+        <v>0.9922691261363634</v>
       </c>
       <c r="D6">
-        <v>0.9964277524617765</v>
+        <v>0.9919398793181817</v>
       </c>
       <c r="E6">
-        <v>1.008418462723975</v>
+        <v>1.017165573806817</v>
       </c>
       <c r="F6">
-        <v>0.9893327016328727</v>
+        <v>0.9791384547159094</v>
       </c>
       <c r="G6">
-        <v>1.014845614732181</v>
+        <v>1.030697581590908</v>
       </c>
       <c r="H6">
-        <v>0.9964277524617765</v>
+        <v>0.9919398793181817</v>
       </c>
       <c r="I6">
-        <v>0.9961459324784463</v>
+        <v>0.9924046152272732</v>
       </c>
       <c r="J6">
-        <v>1.014845614732181</v>
+        <v>1.030697581590908</v>
       </c>
       <c r="K6">
-        <v>0.9964277524617765</v>
+        <v>0.9919398793181817</v>
       </c>
       <c r="L6">
-        <v>0.9961459324784463</v>
+        <v>0.9924046152272732</v>
       </c>
       <c r="M6">
-        <v>1.005495773605313</v>
+        <v>1.011551098409091</v>
       </c>
       <c r="N6">
-        <v>1.005495773605313</v>
+        <v>1.011551098409091</v>
       </c>
       <c r="O6">
-        <v>1.006470003311534</v>
+        <v>1.013422590208333</v>
       </c>
       <c r="P6">
-        <v>1.002473099890801</v>
+        <v>1.005014025378788</v>
       </c>
       <c r="Q6">
-        <v>1.002473099890801</v>
+        <v>1.005014025378788</v>
       </c>
       <c r="R6">
-        <v>1.000961763033545</v>
+        <v>1.001745488863636</v>
       </c>
       <c r="S6">
-        <v>1.000961763033545</v>
+        <v>1.001745488863636</v>
       </c>
       <c r="T6">
-        <v>1.00023309298159</v>
+        <v>1.000602538465909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999600235855551</v>
+        <v>1.049873209246716</v>
       </c>
       <c r="D7">
-        <v>0.9999618226932543</v>
+        <v>1.066947269255535</v>
       </c>
       <c r="E7">
-        <v>1.000089287118262</v>
+        <v>0.892157674742066</v>
       </c>
       <c r="F7">
-        <v>0.9998870029615898</v>
+        <v>1.110442773129394</v>
       </c>
       <c r="G7">
-        <v>1.000157269340373</v>
+        <v>0.7945709663124054</v>
       </c>
       <c r="H7">
-        <v>0.9999618226932543</v>
+        <v>1.066947269255535</v>
       </c>
       <c r="I7">
-        <v>0.9999592836822765</v>
+        <v>1.042846850091161</v>
       </c>
       <c r="J7">
-        <v>1.000157269340373</v>
+        <v>0.7945709663124054</v>
       </c>
       <c r="K7">
-        <v>0.9999618226932543</v>
+        <v>1.066947269255535</v>
       </c>
       <c r="L7">
-        <v>0.9999592836822765</v>
+        <v>1.042846850091161</v>
       </c>
       <c r="M7">
-        <v>1.000058276511325</v>
+        <v>0.9187089082017832</v>
       </c>
       <c r="N7">
-        <v>1.000058276511325</v>
+        <v>0.9187089082017832</v>
       </c>
       <c r="O7">
-        <v>1.000068613380304</v>
+        <v>0.909858497048544</v>
       </c>
       <c r="P7">
-        <v>1.000026125238635</v>
+        <v>0.9681216952197004</v>
       </c>
       <c r="Q7">
-        <v>1.000026125238635</v>
+        <v>0.9681216952197004</v>
       </c>
       <c r="R7">
-        <v>1.000010049602289</v>
+        <v>0.9928280887286589</v>
       </c>
       <c r="S7">
-        <v>1.000010049602289</v>
+        <v>0.9928280887286589</v>
       </c>
       <c r="T7">
-        <v>1.000002448230218</v>
+        <v>0.9928064571295462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999323486020532</v>
+        <v>1.049557009470879</v>
       </c>
       <c r="D8">
-        <v>0.9999557826755389</v>
+        <v>1.066626035530433</v>
       </c>
       <c r="E8">
-        <v>1.000154032121495</v>
+        <v>0.8928563390900275</v>
       </c>
       <c r="F8">
-        <v>0.9997794307150467</v>
+        <v>1.109593656675581</v>
       </c>
       <c r="G8">
-        <v>1.000257849391227</v>
+        <v>0.7958312323259016</v>
       </c>
       <c r="H8">
-        <v>0.9999557826755389</v>
+        <v>1.066626035530433</v>
       </c>
       <c r="I8">
-        <v>0.9999227055074312</v>
+        <v>1.042532721849678</v>
       </c>
       <c r="J8">
-        <v>1.000257849391227</v>
+        <v>0.7958312323259016</v>
       </c>
       <c r="K8">
-        <v>0.9999557826755389</v>
+        <v>1.066626035530433</v>
       </c>
       <c r="L8">
-        <v>0.9999227055074312</v>
+        <v>1.042532721849678</v>
       </c>
       <c r="M8">
-        <v>1.000090277449329</v>
+        <v>0.9191819770877899</v>
       </c>
       <c r="N8">
-        <v>1.000090277449329</v>
+        <v>0.9191819770877899</v>
       </c>
       <c r="O8">
-        <v>1.000111529006718</v>
+        <v>0.9104067644218691</v>
       </c>
       <c r="P8">
-        <v>1.000045445858066</v>
+        <v>0.9683299965686709</v>
       </c>
       <c r="Q8">
-        <v>1.000045445858066</v>
+        <v>0.9683299965686709</v>
       </c>
       <c r="R8">
-        <v>1.000023030062434</v>
+        <v>0.9929040063091114</v>
       </c>
       <c r="S8">
-        <v>1.000023030062434</v>
+        <v>0.9929040063091114</v>
       </c>
       <c r="T8">
-        <v>1.000000358168799</v>
+        <v>0.9928328324904165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999159281184294</v>
+        <v>1.049252953277651</v>
       </c>
       <c r="D9">
-        <v>0.9999874677486413</v>
+        <v>1.06620329148943</v>
       </c>
       <c r="E9">
-        <v>1.000195711538909</v>
+        <v>0.8935161458762013</v>
       </c>
       <c r="F9">
-        <v>0.9996711875247756</v>
+        <v>1.108925765550929</v>
       </c>
       <c r="G9">
-        <v>1.000306349068948</v>
+        <v>0.7970817993093132</v>
       </c>
       <c r="H9">
-        <v>0.9999874677486413</v>
+        <v>1.06620329148943</v>
       </c>
       <c r="I9">
-        <v>0.999886488041923</v>
+        <v>1.042277508356566</v>
       </c>
       <c r="J9">
-        <v>1.000306349068948</v>
+        <v>0.7970817993093132</v>
       </c>
       <c r="K9">
-        <v>0.9999874677486413</v>
+        <v>1.06620329148943</v>
       </c>
       <c r="L9">
-        <v>0.999886488041923</v>
+        <v>1.042277508356566</v>
       </c>
       <c r="M9">
-        <v>1.000096418555436</v>
+        <v>0.9196796538329395</v>
       </c>
       <c r="N9">
-        <v>1.000096418555436</v>
+        <v>0.9196796538329395</v>
       </c>
       <c r="O9">
-        <v>1.000129516216593</v>
+        <v>0.9109584845140267</v>
       </c>
       <c r="P9">
-        <v>1.000060101619837</v>
+        <v>0.9685208663851029</v>
       </c>
       <c r="Q9">
-        <v>1.000060101619837</v>
+        <v>0.968520866385103</v>
       </c>
       <c r="R9">
-        <v>1.000041943152038</v>
+        <v>0.9929414726611847</v>
       </c>
       <c r="S9">
-        <v>1.000041943152038</v>
+        <v>0.9929414726611847</v>
       </c>
       <c r="T9">
-        <v>0.9999938553402711</v>
+        <v>0.9928762439766817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998059996122507</v>
+        <v>1.048812346882973</v>
       </c>
       <c r="D10">
-        <v>0.9999133287794005</v>
+        <v>1.066003702073848</v>
       </c>
       <c r="E10">
-        <v>1.000446009023549</v>
+        <v>0.8945148751443252</v>
       </c>
       <c r="F10">
-        <v>0.999314909493777</v>
+        <v>1.107422369598156</v>
       </c>
       <c r="G10">
-        <v>1.000725683436522</v>
+        <v>0.7987553814267098</v>
       </c>
       <c r="H10">
-        <v>0.9999133287794005</v>
+        <v>1.066003702073848</v>
       </c>
       <c r="I10">
-        <v>0.999761832616065</v>
+        <v>1.04173771785449</v>
       </c>
       <c r="J10">
-        <v>1.000725683436522</v>
+        <v>0.7987553814267098</v>
       </c>
       <c r="K10">
-        <v>0.9999133287794005</v>
+        <v>1.066003702073848</v>
       </c>
       <c r="L10">
-        <v>0.999761832616065</v>
+        <v>1.04173771785449</v>
       </c>
       <c r="M10">
-        <v>1.000243758026294</v>
+        <v>0.9202465496406</v>
       </c>
       <c r="N10">
-        <v>1.000243758026294</v>
+        <v>0.9202465496406</v>
       </c>
       <c r="O10">
-        <v>1.000311175025379</v>
+        <v>0.9116693248085084</v>
       </c>
       <c r="P10">
-        <v>1.000133614943996</v>
+        <v>0.9688322671183492</v>
       </c>
       <c r="Q10">
-        <v>1.000133614943996</v>
+        <v>0.9688322671183495</v>
       </c>
       <c r="R10">
-        <v>1.000078543402847</v>
+        <v>0.993125125857224</v>
       </c>
       <c r="S10">
-        <v>1.000078543402847</v>
+        <v>0.993125125857224</v>
       </c>
       <c r="T10">
-        <v>0.9999946271602608</v>
+        <v>0.9928743988300837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9997255224929776</v>
+        <v>0.9994597469470413</v>
       </c>
       <c r="D11">
-        <v>1.000032890150575</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="E11">
-        <v>1.000648207187128</v>
+        <v>1.001231246182253</v>
       </c>
       <c r="F11">
-        <v>0.9988250705724788</v>
+        <v>0.9981889143388815</v>
       </c>
       <c r="G11">
-        <v>1.000972546058044</v>
+        <v>1.002049601779398</v>
       </c>
       <c r="H11">
-        <v>1.000032890150575</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="I11">
-        <v>0.9995990357727487</v>
+        <v>0.9993626445245432</v>
       </c>
       <c r="J11">
-        <v>1.000972546058044</v>
+        <v>1.002049601779398</v>
       </c>
       <c r="K11">
-        <v>1.000032890150575</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="L11">
-        <v>0.9995990357727487</v>
+        <v>0.9993626445245432</v>
       </c>
       <c r="M11">
-        <v>1.000285790915396</v>
+        <v>1.00070612315197</v>
       </c>
       <c r="N11">
-        <v>1.000285790915396</v>
+        <v>1.00070612315197</v>
       </c>
       <c r="O11">
-        <v>1.000406596339307</v>
+        <v>1.000881164162065</v>
       </c>
       <c r="P11">
-        <v>1.000201490660456</v>
+        <v>1.000369318125119</v>
       </c>
       <c r="Q11">
-        <v>1.000201490660456</v>
+        <v>1.000369318125119</v>
       </c>
       <c r="R11">
-        <v>1.000159340532986</v>
+        <v>1.000200915611692</v>
       </c>
       <c r="S11">
-        <v>1.000159340532986</v>
+        <v>1.000200915611692</v>
       </c>
       <c r="T11">
-        <v>0.9999672120389919</v>
+        <v>0.9999979769739218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9975462344759496</v>
+        <v>0.9999137670389535</v>
       </c>
       <c r="D12">
-        <v>1.001372859618926</v>
+        <v>0.9999870197093962</v>
       </c>
       <c r="E12">
-        <v>1.00605623982872</v>
+        <v>1.000205975967245</v>
       </c>
       <c r="F12">
-        <v>0.9875703724547737</v>
+        <v>0.9996444737585855</v>
       </c>
       <c r="G12">
-        <v>1.008068756446385</v>
+        <v>1.000305053066592</v>
       </c>
       <c r="H12">
-        <v>1.001372859618926</v>
+        <v>0.9999870197093962</v>
       </c>
       <c r="I12">
-        <v>0.9959714897542213</v>
+        <v>0.9998836227570459</v>
       </c>
       <c r="J12">
-        <v>1.008068756446385</v>
+        <v>1.000305053066592</v>
       </c>
       <c r="K12">
-        <v>1.001372859618926</v>
+        <v>0.9999870197093962</v>
       </c>
       <c r="L12">
-        <v>0.9959714897542213</v>
+        <v>0.9998836227570459</v>
       </c>
       <c r="M12">
-        <v>1.002020123100303</v>
+        <v>1.000094337911819</v>
       </c>
       <c r="N12">
-        <v>1.002020123100303</v>
+        <v>1.000094337911819</v>
       </c>
       <c r="O12">
-        <v>1.003365495343109</v>
+        <v>1.000131550596961</v>
       </c>
       <c r="P12">
-        <v>1.001804368606511</v>
+        <v>1.000058565177678</v>
       </c>
       <c r="Q12">
-        <v>1.001804368606511</v>
+        <v>1.000058565177678</v>
       </c>
       <c r="R12">
-        <v>1.001696491359614</v>
+        <v>1.000040678810608</v>
       </c>
       <c r="S12">
-        <v>1.001696491359614</v>
+        <v>1.000040678810608</v>
       </c>
       <c r="T12">
-        <v>0.9994309920964958</v>
+        <v>0.9999899853829697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999069688167224</v>
+        <v>0.9997739159131206</v>
       </c>
       <c r="D13">
-        <v>0.9976896484598996</v>
+        <v>0.9999230221681358</v>
       </c>
       <c r="E13">
-        <v>1.00164952496339</v>
+        <v>1.000542415328275</v>
       </c>
       <c r="F13">
-        <v>1.000203324007115</v>
+        <v>0.9990996535039298</v>
       </c>
       <c r="G13">
-        <v>1.004631701824764</v>
+        <v>1.000802245387246</v>
       </c>
       <c r="H13">
-        <v>0.9976896484598996</v>
+        <v>0.9999230221681358</v>
       </c>
       <c r="I13">
-        <v>0.999637608767981</v>
+        <v>0.9997125535024429</v>
       </c>
       <c r="J13">
-        <v>1.004631701824764</v>
+        <v>1.000802245387246</v>
       </c>
       <c r="K13">
-        <v>0.9976896484598996</v>
+        <v>0.9999230221681358</v>
       </c>
       <c r="L13">
-        <v>0.999637608767981</v>
+        <v>0.9997125535024429</v>
       </c>
       <c r="M13">
-        <v>1.002134655296373</v>
+        <v>1.000257399444845</v>
       </c>
       <c r="N13">
-        <v>1.002134655296373</v>
+        <v>1.000257399444845</v>
       </c>
       <c r="O13">
-        <v>1.001972945185378</v>
+        <v>1.000352404739322</v>
       </c>
       <c r="P13">
-        <v>1.000652986350882</v>
+        <v>1.000145940352608</v>
       </c>
       <c r="Q13">
-        <v>1.000652986350882</v>
+        <v>1.000145940352608</v>
       </c>
       <c r="R13">
-        <v>0.999912151878136</v>
+        <v>1.00009021080649</v>
       </c>
       <c r="S13">
-        <v>0.999912151878136</v>
+        <v>1.00009021080649</v>
       </c>
       <c r="T13">
-        <v>1.000480249365062</v>
+        <v>0.9999756343005251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9804855012770606</v>
+        <v>0.9980767944483009</v>
       </c>
       <c r="D14">
-        <v>0.95331573258043</v>
+        <v>0.9981887624418573</v>
       </c>
       <c r="E14">
-        <v>1.039289837741551</v>
+        <v>1.004291210346428</v>
       </c>
       <c r="F14">
-        <v>0.9861396093977098</v>
+        <v>0.9945555767160849</v>
       </c>
       <c r="G14">
-        <v>1.088649567896216</v>
+        <v>1.007569909691338</v>
       </c>
       <c r="H14">
-        <v>0.95331573258043</v>
+        <v>0.9981887624418573</v>
       </c>
       <c r="I14">
-        <v>0.9916664802301325</v>
+        <v>0.9980307169223032</v>
       </c>
       <c r="J14">
-        <v>1.088649567896216</v>
+        <v>1.007569909691338</v>
       </c>
       <c r="K14">
-        <v>0.95331573258043</v>
+        <v>0.9981887624418573</v>
       </c>
       <c r="L14">
-        <v>0.9916664802301325</v>
+        <v>0.9980307169223032</v>
       </c>
       <c r="M14">
-        <v>1.040158024063174</v>
+        <v>1.002800313306821</v>
       </c>
       <c r="N14">
-        <v>1.040158024063174</v>
+        <v>1.002800313306821</v>
       </c>
       <c r="O14">
-        <v>1.039868628622633</v>
+        <v>1.00329727898669</v>
       </c>
       <c r="P14">
-        <v>1.011210593568926</v>
+        <v>1.001263129685166</v>
       </c>
       <c r="Q14">
-        <v>1.011210593568926</v>
+        <v>1.001263129685166</v>
       </c>
       <c r="R14">
-        <v>0.996736878321802</v>
+        <v>1.000494537874339</v>
       </c>
       <c r="S14">
-        <v>0.996736878321802</v>
+        <v>1.000494537874339</v>
       </c>
       <c r="T14">
-        <v>1.006591121520517</v>
+        <v>1.000118828427719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9961481673531385</v>
+        <v>0.999305405841569</v>
       </c>
       <c r="D15">
-        <v>1.006923959725468</v>
+        <v>0.9993506860795215</v>
       </c>
       <c r="E15">
-        <v>1.010165461286561</v>
+        <v>1.001551154601444</v>
       </c>
       <c r="F15">
-        <v>0.9737194417589302</v>
+        <v>0.9980244968296421</v>
       </c>
       <c r="G15">
-        <v>1.010773047747016</v>
+        <v>1.002730908731373</v>
       </c>
       <c r="H15">
-        <v>1.006923959725468</v>
+        <v>0.9993506860795215</v>
       </c>
       <c r="I15">
-        <v>0.9917136827737578</v>
+        <v>0.9992867728876543</v>
       </c>
       <c r="J15">
-        <v>1.010773047747016</v>
+        <v>1.002730908731373</v>
       </c>
       <c r="K15">
-        <v>1.006923959725468</v>
+        <v>0.9993506860795215</v>
       </c>
       <c r="L15">
-        <v>0.9917136827737578</v>
+        <v>0.9992867728876543</v>
       </c>
       <c r="M15">
-        <v>1.001243365260387</v>
+        <v>1.001008840809514</v>
       </c>
       <c r="N15">
-        <v>1.001243365260387</v>
+        <v>1.001008840809514</v>
       </c>
       <c r="O15">
-        <v>1.004217397269112</v>
+        <v>1.001189612073491</v>
       </c>
       <c r="P15">
-        <v>1.003136896748747</v>
+        <v>1.000456122566183</v>
       </c>
       <c r="Q15">
-        <v>1.003136896748747</v>
+        <v>1.000456122566183</v>
       </c>
       <c r="R15">
-        <v>1.004083662492927</v>
+        <v>1.000179763444518</v>
       </c>
       <c r="S15">
-        <v>1.004083662492927</v>
+        <v>1.000179763444518</v>
       </c>
       <c r="T15">
-        <v>0.9982406267741452</v>
+        <v>1.000041570828534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9864282517106909</v>
+        <v>0.9986595878651845</v>
       </c>
       <c r="D16">
-        <v>0.9871360469906418</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="E16">
-        <v>1.030240679316204</v>
+        <v>1.002993438835808</v>
       </c>
       <c r="F16">
-        <v>0.9618029706141642</v>
+        <v>0.9961697252682862</v>
       </c>
       <c r="G16">
-        <v>1.05350548148229</v>
+        <v>1.005267007801327</v>
       </c>
       <c r="H16">
-        <v>0.9871360469906418</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="I16">
-        <v>0.986136991967289</v>
+        <v>0.9986157903374853</v>
       </c>
       <c r="J16">
-        <v>1.05350548148229</v>
+        <v>1.005267007801327</v>
       </c>
       <c r="K16">
-        <v>0.9871360469906418</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="L16">
-        <v>0.986136991967289</v>
+        <v>0.9986157903374853</v>
       </c>
       <c r="M16">
-        <v>1.01982123672479</v>
+        <v>1.001941399069406</v>
       </c>
       <c r="N16">
-        <v>1.01982123672479</v>
+        <v>1.001941399069406</v>
       </c>
       <c r="O16">
-        <v>1.023294384255261</v>
+        <v>1.00229207899154</v>
       </c>
       <c r="P16">
-        <v>1.008926173480074</v>
+        <v>1.000882940256247</v>
       </c>
       <c r="Q16">
-        <v>1.008926173480074</v>
+        <v>1.000882940256247</v>
       </c>
       <c r="R16">
-        <v>1.003478641857716</v>
+        <v>1.000353710849667</v>
       </c>
       <c r="S16">
-        <v>1.003478641857716</v>
+        <v>1.000353710849667</v>
       </c>
       <c r="T16">
-        <v>1.00087507034688</v>
+        <v>1.000078595456337</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.988887281080867</v>
+        <v>0.9974288967376168</v>
       </c>
       <c r="D17">
-        <v>0.9891464219985123</v>
+        <v>0.9975795900991656</v>
       </c>
       <c r="E17">
-        <v>1.024710986581199</v>
+        <v>1.00573909431588</v>
       </c>
       <c r="F17">
-        <v>0.9692004083501368</v>
+        <v>0.9927126085655762</v>
       </c>
       <c r="G17">
-        <v>1.043949066474424</v>
+        <v>1.010115980170207</v>
       </c>
       <c r="H17">
-        <v>0.9891464219985123</v>
+        <v>0.9975795900991656</v>
       </c>
       <c r="I17">
-        <v>0.9887806481179255</v>
+        <v>0.9973668841847412</v>
       </c>
       <c r="J17">
-        <v>1.043949066474424</v>
+        <v>1.010115980170207</v>
       </c>
       <c r="K17">
-        <v>0.9891464219985123</v>
+        <v>0.9975795900991656</v>
       </c>
       <c r="L17">
-        <v>0.9887806481179255</v>
+        <v>0.9973668841847412</v>
       </c>
       <c r="M17">
-        <v>1.016364857296175</v>
+        <v>1.003741432177474</v>
       </c>
       <c r="N17">
-        <v>1.016364857296175</v>
+        <v>1.003741432177474</v>
       </c>
       <c r="O17">
-        <v>1.019146900391183</v>
+        <v>1.004407319556943</v>
       </c>
       <c r="P17">
-        <v>1.007292045530287</v>
+        <v>1.001687484818038</v>
       </c>
       <c r="Q17">
-        <v>1.007292045530287</v>
+        <v>1.001687484818038</v>
       </c>
       <c r="R17">
-        <v>1.002755639647344</v>
+        <v>1.00066051113832</v>
       </c>
       <c r="S17">
-        <v>1.002755639647344</v>
+        <v>1.00066051113832</v>
       </c>
       <c r="T17">
-        <v>1.000779135433844</v>
+        <v>1.000157175678865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9938737775840969</v>
+        <v>0.9962280938602887</v>
       </c>
       <c r="D18">
-        <v>0.9932879675290621</v>
+        <v>0.9964277524617765</v>
       </c>
       <c r="E18">
-        <v>1.013505490676352</v>
+        <v>1.008418462723975</v>
       </c>
       <c r="F18">
-        <v>0.9841132188507425</v>
+        <v>0.9893327016328727</v>
       </c>
       <c r="G18">
-        <v>1.024546574877995</v>
+        <v>1.014845614732181</v>
       </c>
       <c r="H18">
-        <v>0.9932879675290621</v>
+        <v>0.9964277524617765</v>
       </c>
       <c r="I18">
-        <v>0.9941148509443483</v>
+        <v>0.9961459324784463</v>
       </c>
       <c r="J18">
-        <v>1.024546574877995</v>
+        <v>1.014845614732181</v>
       </c>
       <c r="K18">
-        <v>0.9932879675290621</v>
+        <v>0.9964277524617765</v>
       </c>
       <c r="L18">
-        <v>0.9941148509443483</v>
+        <v>0.9961459324784463</v>
       </c>
       <c r="M18">
-        <v>1.009330712911172</v>
+        <v>1.005495773605313</v>
       </c>
       <c r="N18">
-        <v>1.009330712911172</v>
+        <v>1.005495773605313</v>
       </c>
       <c r="O18">
-        <v>1.010722305499565</v>
+        <v>1.006470003311534</v>
       </c>
       <c r="P18">
-        <v>1.003983131117135</v>
+        <v>1.002473099890801</v>
       </c>
       <c r="Q18">
-        <v>1.003983131117135</v>
+        <v>1.002473099890801</v>
       </c>
       <c r="R18">
-        <v>1.001309340220117</v>
+        <v>1.000961763033545</v>
       </c>
       <c r="S18">
-        <v>1.001309340220117</v>
+        <v>1.000961763033545</v>
       </c>
       <c r="T18">
-        <v>1.000573646743766</v>
+        <v>1.00023309298159</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9934509346339107</v>
+        <v>0.9999600235855551</v>
       </c>
       <c r="D19">
-        <v>0.9922807468434741</v>
+        <v>0.9999618226932543</v>
       </c>
       <c r="E19">
-        <v>1.014454976714393</v>
+        <v>1.000089287118262</v>
       </c>
       <c r="F19">
-        <v>0.9834642294767657</v>
+        <v>0.9998870029615898</v>
       </c>
       <c r="G19">
-        <v>1.026294479446872</v>
+        <v>1.000157269340373</v>
       </c>
       <c r="H19">
-        <v>0.9922807468434741</v>
+        <v>0.9999618226932543</v>
       </c>
       <c r="I19">
-        <v>0.9939324907859372</v>
+        <v>0.9999592836822765</v>
       </c>
       <c r="J19">
-        <v>1.026294479446872</v>
+        <v>1.000157269340373</v>
       </c>
       <c r="K19">
-        <v>0.9922807468434741</v>
+        <v>0.9999618226932543</v>
       </c>
       <c r="L19">
-        <v>0.9939324907859372</v>
+        <v>0.9999592836822765</v>
       </c>
       <c r="M19">
-        <v>1.010113485116405</v>
+        <v>1.000058276511325</v>
       </c>
       <c r="N19">
-        <v>1.010113485116405</v>
+        <v>1.000058276511325</v>
       </c>
       <c r="O19">
-        <v>1.011560648982401</v>
+        <v>1.000068613380304</v>
       </c>
       <c r="P19">
-        <v>1.004169239025428</v>
+        <v>1.000026125238635</v>
       </c>
       <c r="Q19">
-        <v>1.004169239025428</v>
+        <v>1.000026125238635</v>
       </c>
       <c r="R19">
-        <v>1.00119711597994</v>
+        <v>1.000010049602289</v>
       </c>
       <c r="S19">
-        <v>1.00119711597994</v>
+        <v>1.000010049602289</v>
       </c>
       <c r="T19">
-        <v>1.000646309650226</v>
+        <v>1.000002448230218</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999904149480682</v>
+        <v>0.9999323486020532</v>
       </c>
       <c r="D20">
-        <v>0.9998950503443115</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="E20">
-        <v>1.000009951756712</v>
+        <v>1.000154032121495</v>
       </c>
       <c r="F20">
-        <v>1.000102646839725</v>
+        <v>0.9997794307150467</v>
       </c>
       <c r="G20">
-        <v>1.000072615316453</v>
+        <v>1.000257849391227</v>
       </c>
       <c r="H20">
-        <v>0.9998950503443115</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="I20">
-        <v>1.000029660024509</v>
+        <v>0.9999227055074312</v>
       </c>
       <c r="J20">
-        <v>1.000072615316453</v>
+        <v>1.000257849391227</v>
       </c>
       <c r="K20">
-        <v>0.9998950503443115</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="L20">
-        <v>1.000029660024509</v>
+        <v>0.9999227055074312</v>
       </c>
       <c r="M20">
-        <v>1.000051137670481</v>
+        <v>1.000090277449329</v>
       </c>
       <c r="N20">
-        <v>1.000051137670481</v>
+        <v>1.000090277449329</v>
       </c>
       <c r="O20">
-        <v>1.000037409032558</v>
+        <v>1.000111529006718</v>
       </c>
       <c r="P20">
-        <v>0.9999991085617578</v>
+        <v>1.000045445858066</v>
       </c>
       <c r="Q20">
-        <v>0.999999108561758</v>
+        <v>1.000045445858066</v>
       </c>
       <c r="R20">
-        <v>0.9999730940073963</v>
+        <v>1.000023030062434</v>
       </c>
       <c r="S20">
-        <v>0.9999730940073963</v>
+        <v>1.000023030062434</v>
       </c>
       <c r="T20">
-        <v>1.000016723204963</v>
+        <v>1.000000358168799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999483832461454</v>
+        <v>0.9999159281184294</v>
       </c>
       <c r="D21">
-        <v>1.000078226189603</v>
+        <v>0.9999874677486413</v>
       </c>
       <c r="E21">
-        <v>1.000131085159456</v>
+        <v>1.000195711538909</v>
       </c>
       <c r="F21">
-        <v>0.9996794601266105</v>
+        <v>0.9996711875247756</v>
       </c>
       <c r="G21">
-        <v>1.000155625936138</v>
+        <v>1.000306349068948</v>
       </c>
       <c r="H21">
-        <v>1.000078226189603</v>
+        <v>0.9999874677486413</v>
       </c>
       <c r="I21">
-        <v>0.9998949501251413</v>
+        <v>0.999886488041923</v>
       </c>
       <c r="J21">
-        <v>1.000155625936138</v>
+        <v>1.000306349068948</v>
       </c>
       <c r="K21">
-        <v>1.000078226189603</v>
+        <v>0.9999874677486413</v>
       </c>
       <c r="L21">
-        <v>0.9998949501251413</v>
+        <v>0.999886488041923</v>
       </c>
       <c r="M21">
-        <v>1.00002528803064</v>
+        <v>1.000096418555436</v>
       </c>
       <c r="N21">
-        <v>1.00002528803064</v>
+        <v>1.000096418555436</v>
       </c>
       <c r="O21">
-        <v>1.000060553740245</v>
+        <v>1.000129516216593</v>
       </c>
       <c r="P21">
-        <v>1.000042934083627</v>
+        <v>1.000060101619837</v>
       </c>
       <c r="Q21">
-        <v>1.000042934083628</v>
+        <v>1.000060101619837</v>
       </c>
       <c r="R21">
-        <v>1.000051757110122</v>
+        <v>1.000041943152038</v>
       </c>
       <c r="S21">
-        <v>1.000051757110122</v>
+        <v>1.000041943152038</v>
       </c>
       <c r="T21">
-        <v>0.9999812884638491</v>
+        <v>0.9999938553402711</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.999766397887439</v>
+        <v>0.9998059996122507</v>
       </c>
       <c r="D22">
-        <v>0.9995107832664485</v>
+        <v>0.9999133287794005</v>
       </c>
       <c r="E22">
-        <v>1.00048727613319</v>
+        <v>1.000446009023549</v>
       </c>
       <c r="F22">
-        <v>0.9997094954719247</v>
+        <v>0.999314909493777</v>
       </c>
       <c r="G22">
-        <v>1.00102067293164</v>
+        <v>1.000725683436522</v>
       </c>
       <c r="H22">
-        <v>0.9995107832664485</v>
+        <v>0.9999133287794005</v>
       </c>
       <c r="I22">
-        <v>0.9998715887700877</v>
+        <v>0.999761832616065</v>
       </c>
       <c r="J22">
-        <v>1.00102067293164</v>
+        <v>1.000725683436522</v>
       </c>
       <c r="K22">
-        <v>0.9995107832664485</v>
+        <v>0.9999133287794005</v>
       </c>
       <c r="L22">
-        <v>0.9998715887700877</v>
+        <v>0.999761832616065</v>
       </c>
       <c r="M22">
-        <v>1.000446130850864</v>
+        <v>1.000243758026294</v>
       </c>
       <c r="N22">
-        <v>1.000446130850864</v>
+        <v>1.000243758026294</v>
       </c>
       <c r="O22">
-        <v>1.000459845944972</v>
+        <v>1.000311175025379</v>
       </c>
       <c r="P22">
-        <v>1.000134348322725</v>
+        <v>1.000133614943996</v>
       </c>
       <c r="Q22">
-        <v>1.000134348322725</v>
+        <v>1.000133614943996</v>
       </c>
       <c r="R22">
-        <v>0.9999784570586562</v>
+        <v>1.000078543402847</v>
       </c>
       <c r="S22">
-        <v>0.9999784570586562</v>
+        <v>1.000078543402847</v>
       </c>
       <c r="T22">
-        <v>1.000061035743455</v>
+        <v>0.9999946271602608</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9997255224929776</v>
+      </c>
+      <c r="D23">
+        <v>1.000032890150575</v>
+      </c>
+      <c r="E23">
+        <v>1.000648207187128</v>
+      </c>
+      <c r="F23">
+        <v>0.9988250705724788</v>
+      </c>
+      <c r="G23">
+        <v>1.000972546058044</v>
+      </c>
+      <c r="H23">
+        <v>1.000032890150575</v>
+      </c>
+      <c r="I23">
+        <v>0.9995990357727487</v>
+      </c>
+      <c r="J23">
+        <v>1.000972546058044</v>
+      </c>
+      <c r="K23">
+        <v>1.000032890150575</v>
+      </c>
+      <c r="L23">
+        <v>0.9995990357727487</v>
+      </c>
+      <c r="M23">
+        <v>1.000285790915396</v>
+      </c>
+      <c r="N23">
+        <v>1.000285790915396</v>
+      </c>
+      <c r="O23">
+        <v>1.000406596339307</v>
+      </c>
+      <c r="P23">
+        <v>1.000201490660456</v>
+      </c>
+      <c r="Q23">
+        <v>1.000201490660456</v>
+      </c>
+      <c r="R23">
+        <v>1.000159340532986</v>
+      </c>
+      <c r="S23">
+        <v>1.000159340532986</v>
+      </c>
+      <c r="T23">
+        <v>0.9999672120389919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9975462344759496</v>
+      </c>
+      <c r="D24">
+        <v>1.001372859618926</v>
+      </c>
+      <c r="E24">
+        <v>1.00605623982872</v>
+      </c>
+      <c r="F24">
+        <v>0.9875703724547737</v>
+      </c>
+      <c r="G24">
+        <v>1.008068756446385</v>
+      </c>
+      <c r="H24">
+        <v>1.001372859618926</v>
+      </c>
+      <c r="I24">
+        <v>0.9959714897542213</v>
+      </c>
+      <c r="J24">
+        <v>1.008068756446385</v>
+      </c>
+      <c r="K24">
+        <v>1.001372859618926</v>
+      </c>
+      <c r="L24">
+        <v>0.9959714897542213</v>
+      </c>
+      <c r="M24">
+        <v>1.002020123100303</v>
+      </c>
+      <c r="N24">
+        <v>1.002020123100303</v>
+      </c>
+      <c r="O24">
+        <v>1.003365495343109</v>
+      </c>
+      <c r="P24">
+        <v>1.001804368606511</v>
+      </c>
+      <c r="Q24">
+        <v>1.001804368606511</v>
+      </c>
+      <c r="R24">
+        <v>1.001696491359614</v>
+      </c>
+      <c r="S24">
+        <v>1.001696491359614</v>
+      </c>
+      <c r="T24">
+        <v>0.9994309920964958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.999069688167224</v>
+      </c>
+      <c r="D25">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="E25">
+        <v>1.00164952496339</v>
+      </c>
+      <c r="F25">
+        <v>1.000203324007115</v>
+      </c>
+      <c r="G25">
+        <v>1.004631701824764</v>
+      </c>
+      <c r="H25">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="I25">
+        <v>0.999637608767981</v>
+      </c>
+      <c r="J25">
+        <v>1.004631701824764</v>
+      </c>
+      <c r="K25">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="L25">
+        <v>0.999637608767981</v>
+      </c>
+      <c r="M25">
+        <v>1.002134655296373</v>
+      </c>
+      <c r="N25">
+        <v>1.002134655296373</v>
+      </c>
+      <c r="O25">
+        <v>1.001972945185378</v>
+      </c>
+      <c r="P25">
+        <v>1.000652986350882</v>
+      </c>
+      <c r="Q25">
+        <v>1.000652986350882</v>
+      </c>
+      <c r="R25">
+        <v>0.999912151878136</v>
+      </c>
+      <c r="S25">
+        <v>0.999912151878136</v>
+      </c>
+      <c r="T25">
+        <v>1.000480249365062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9804855012770606</v>
+      </c>
+      <c r="D26">
+        <v>0.95331573258043</v>
+      </c>
+      <c r="E26">
+        <v>1.039289837741551</v>
+      </c>
+      <c r="F26">
+        <v>0.9861396093977098</v>
+      </c>
+      <c r="G26">
+        <v>1.088649567896216</v>
+      </c>
+      <c r="H26">
+        <v>0.95331573258043</v>
+      </c>
+      <c r="I26">
+        <v>0.9916664802301325</v>
+      </c>
+      <c r="J26">
+        <v>1.088649567896216</v>
+      </c>
+      <c r="K26">
+        <v>0.95331573258043</v>
+      </c>
+      <c r="L26">
+        <v>0.9916664802301325</v>
+      </c>
+      <c r="M26">
+        <v>1.040158024063174</v>
+      </c>
+      <c r="N26">
+        <v>1.040158024063174</v>
+      </c>
+      <c r="O26">
+        <v>1.039868628622633</v>
+      </c>
+      <c r="P26">
+        <v>1.011210593568926</v>
+      </c>
+      <c r="Q26">
+        <v>1.011210593568926</v>
+      </c>
+      <c r="R26">
+        <v>0.996736878321802</v>
+      </c>
+      <c r="S26">
+        <v>0.996736878321802</v>
+      </c>
+      <c r="T26">
+        <v>1.006591121520517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9961481673531385</v>
+      </c>
+      <c r="D27">
+        <v>1.006923959725468</v>
+      </c>
+      <c r="E27">
+        <v>1.010165461286561</v>
+      </c>
+      <c r="F27">
+        <v>0.9737194417589302</v>
+      </c>
+      <c r="G27">
+        <v>1.010773047747016</v>
+      </c>
+      <c r="H27">
+        <v>1.006923959725468</v>
+      </c>
+      <c r="I27">
+        <v>0.9917136827737578</v>
+      </c>
+      <c r="J27">
+        <v>1.010773047747016</v>
+      </c>
+      <c r="K27">
+        <v>1.006923959725468</v>
+      </c>
+      <c r="L27">
+        <v>0.9917136827737578</v>
+      </c>
+      <c r="M27">
+        <v>1.001243365260387</v>
+      </c>
+      <c r="N27">
+        <v>1.001243365260387</v>
+      </c>
+      <c r="O27">
+        <v>1.004217397269112</v>
+      </c>
+      <c r="P27">
+        <v>1.003136896748747</v>
+      </c>
+      <c r="Q27">
+        <v>1.003136896748747</v>
+      </c>
+      <c r="R27">
+        <v>1.004083662492927</v>
+      </c>
+      <c r="S27">
+        <v>1.004083662492927</v>
+      </c>
+      <c r="T27">
+        <v>0.9982406267741452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9864282517106909</v>
+      </c>
+      <c r="D28">
+        <v>0.9871360469906418</v>
+      </c>
+      <c r="E28">
+        <v>1.030240679316204</v>
+      </c>
+      <c r="F28">
+        <v>0.9618029706141642</v>
+      </c>
+      <c r="G28">
+        <v>1.05350548148229</v>
+      </c>
+      <c r="H28">
+        <v>0.9871360469906418</v>
+      </c>
+      <c r="I28">
+        <v>0.986136991967289</v>
+      </c>
+      <c r="J28">
+        <v>1.05350548148229</v>
+      </c>
+      <c r="K28">
+        <v>0.9871360469906418</v>
+      </c>
+      <c r="L28">
+        <v>0.986136991967289</v>
+      </c>
+      <c r="M28">
+        <v>1.01982123672479</v>
+      </c>
+      <c r="N28">
+        <v>1.01982123672479</v>
+      </c>
+      <c r="O28">
+        <v>1.023294384255261</v>
+      </c>
+      <c r="P28">
+        <v>1.008926173480074</v>
+      </c>
+      <c r="Q28">
+        <v>1.008926173480074</v>
+      </c>
+      <c r="R28">
+        <v>1.003478641857716</v>
+      </c>
+      <c r="S28">
+        <v>1.003478641857716</v>
+      </c>
+      <c r="T28">
+        <v>1.00087507034688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.988887281080867</v>
+      </c>
+      <c r="D29">
+        <v>0.9891464219985123</v>
+      </c>
+      <c r="E29">
+        <v>1.024710986581199</v>
+      </c>
+      <c r="F29">
+        <v>0.9692004083501368</v>
+      </c>
+      <c r="G29">
+        <v>1.043949066474424</v>
+      </c>
+      <c r="H29">
+        <v>0.9891464219985123</v>
+      </c>
+      <c r="I29">
+        <v>0.9887806481179255</v>
+      </c>
+      <c r="J29">
+        <v>1.043949066474424</v>
+      </c>
+      <c r="K29">
+        <v>0.9891464219985123</v>
+      </c>
+      <c r="L29">
+        <v>0.9887806481179255</v>
+      </c>
+      <c r="M29">
+        <v>1.016364857296175</v>
+      </c>
+      <c r="N29">
+        <v>1.016364857296175</v>
+      </c>
+      <c r="O29">
+        <v>1.019146900391183</v>
+      </c>
+      <c r="P29">
+        <v>1.007292045530287</v>
+      </c>
+      <c r="Q29">
+        <v>1.007292045530287</v>
+      </c>
+      <c r="R29">
+        <v>1.002755639647344</v>
+      </c>
+      <c r="S29">
+        <v>1.002755639647344</v>
+      </c>
+      <c r="T29">
+        <v>1.000779135433844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9938737775840969</v>
+      </c>
+      <c r="D30">
+        <v>0.9932879675290621</v>
+      </c>
+      <c r="E30">
+        <v>1.013505490676352</v>
+      </c>
+      <c r="F30">
+        <v>0.9841132188507425</v>
+      </c>
+      <c r="G30">
+        <v>1.024546574877995</v>
+      </c>
+      <c r="H30">
+        <v>0.9932879675290621</v>
+      </c>
+      <c r="I30">
+        <v>0.9941148509443483</v>
+      </c>
+      <c r="J30">
+        <v>1.024546574877995</v>
+      </c>
+      <c r="K30">
+        <v>0.9932879675290621</v>
+      </c>
+      <c r="L30">
+        <v>0.9941148509443483</v>
+      </c>
+      <c r="M30">
+        <v>1.009330712911172</v>
+      </c>
+      <c r="N30">
+        <v>1.009330712911172</v>
+      </c>
+      <c r="O30">
+        <v>1.010722305499565</v>
+      </c>
+      <c r="P30">
+        <v>1.003983131117135</v>
+      </c>
+      <c r="Q30">
+        <v>1.003983131117135</v>
+      </c>
+      <c r="R30">
+        <v>1.001309340220117</v>
+      </c>
+      <c r="S30">
+        <v>1.001309340220117</v>
+      </c>
+      <c r="T30">
+        <v>1.000573646743766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9934509346339107</v>
+      </c>
+      <c r="D31">
+        <v>0.9922807468434741</v>
+      </c>
+      <c r="E31">
+        <v>1.014454976714393</v>
+      </c>
+      <c r="F31">
+        <v>0.9834642294767657</v>
+      </c>
+      <c r="G31">
+        <v>1.026294479446872</v>
+      </c>
+      <c r="H31">
+        <v>0.9922807468434741</v>
+      </c>
+      <c r="I31">
+        <v>0.9939324907859372</v>
+      </c>
+      <c r="J31">
+        <v>1.026294479446872</v>
+      </c>
+      <c r="K31">
+        <v>0.9922807468434741</v>
+      </c>
+      <c r="L31">
+        <v>0.9939324907859372</v>
+      </c>
+      <c r="M31">
+        <v>1.010113485116405</v>
+      </c>
+      <c r="N31">
+        <v>1.010113485116405</v>
+      </c>
+      <c r="O31">
+        <v>1.011560648982401</v>
+      </c>
+      <c r="P31">
+        <v>1.004169239025428</v>
+      </c>
+      <c r="Q31">
+        <v>1.004169239025428</v>
+      </c>
+      <c r="R31">
+        <v>1.00119711597994</v>
+      </c>
+      <c r="S31">
+        <v>1.00119711597994</v>
+      </c>
+      <c r="T31">
+        <v>1.000646309650226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9849346558904108</v>
+      </c>
+      <c r="D32">
+        <v>0.9870405756164383</v>
+      </c>
+      <c r="E32">
+        <v>1.033740936164383</v>
+      </c>
+      <c r="F32">
+        <v>0.9557608646575342</v>
+      </c>
+      <c r="G32">
+        <v>1.058887536712328</v>
+      </c>
+      <c r="H32">
+        <v>0.9870405756164383</v>
+      </c>
+      <c r="I32">
+        <v>0.9840680405479449</v>
+      </c>
+      <c r="J32">
+        <v>1.058887536712328</v>
+      </c>
+      <c r="K32">
+        <v>0.9870405756164383</v>
+      </c>
+      <c r="L32">
+        <v>0.9840680405479449</v>
+      </c>
+      <c r="M32">
+        <v>1.021477788630137</v>
+      </c>
+      <c r="N32">
+        <v>1.021477788630137</v>
+      </c>
+      <c r="O32">
+        <v>1.025565504474885</v>
+      </c>
+      <c r="P32">
+        <v>1.009998717625571</v>
+      </c>
+      <c r="Q32">
+        <v>1.009998717625571</v>
+      </c>
+      <c r="R32">
+        <v>1.004259182123288</v>
+      </c>
+      <c r="S32">
+        <v>1.004259182123288</v>
+      </c>
+      <c r="T32">
+        <v>1.00073876826484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.01822226</v>
+      </c>
+      <c r="D33">
+        <v>0.9971749852631575</v>
+      </c>
+      <c r="E33">
+        <v>0.957010027368421</v>
+      </c>
+      <c r="F33">
+        <v>1.078447545263158</v>
+      </c>
+      <c r="G33">
+        <v>0.9354557094736843</v>
+      </c>
+      <c r="H33">
+        <v>0.9971749852631575</v>
+      </c>
+      <c r="I33">
+        <v>1.026883695789474</v>
+      </c>
+      <c r="J33">
+        <v>0.9354557094736843</v>
+      </c>
+      <c r="K33">
+        <v>0.9971749852631575</v>
+      </c>
+      <c r="L33">
+        <v>1.026883695789474</v>
+      </c>
+      <c r="M33">
+        <v>0.9811697026315791</v>
+      </c>
+      <c r="N33">
+        <v>0.9811697026315791</v>
+      </c>
+      <c r="O33">
+        <v>0.9731164775438597</v>
+      </c>
+      <c r="P33">
+        <v>0.9865047968421052</v>
+      </c>
+      <c r="Q33">
+        <v>0.9865047968421052</v>
+      </c>
+      <c r="R33">
+        <v>0.9891723439473683</v>
+      </c>
+      <c r="S33">
+        <v>0.9891723439473683</v>
+      </c>
+      <c r="T33">
+        <v>1.002199037192982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.042962956842105</v>
+      </c>
+      <c r="D34">
+        <v>1.059571243157895</v>
+      </c>
+      <c r="E34">
+        <v>0.9073919410526314</v>
+      </c>
+      <c r="F34">
+        <v>1.092339352105263</v>
+      </c>
+      <c r="G34">
+        <v>0.8222282600000002</v>
+      </c>
+      <c r="H34">
+        <v>1.059571243157895</v>
+      </c>
+      <c r="I34">
+        <v>1.036128273157895</v>
+      </c>
+      <c r="J34">
+        <v>0.8222282600000002</v>
+      </c>
+      <c r="K34">
+        <v>1.059571243157895</v>
+      </c>
+      <c r="L34">
+        <v>1.036128273157895</v>
+      </c>
+      <c r="M34">
+        <v>0.9291782665789474</v>
+      </c>
+      <c r="N34">
+        <v>0.9291782665789474</v>
+      </c>
+      <c r="O34">
+        <v>0.9219161580701755</v>
+      </c>
+      <c r="P34">
+        <v>0.9726425921052632</v>
+      </c>
+      <c r="Q34">
+        <v>0.9726425921052632</v>
+      </c>
+      <c r="R34">
+        <v>0.9943747548684211</v>
+      </c>
+      <c r="S34">
+        <v>0.9943747548684211</v>
+      </c>
+      <c r="T34">
+        <v>0.9934370043859649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9752436807015116</v>
+      </c>
+      <c r="D35">
+        <v>0.9711179579164309</v>
+      </c>
+      <c r="E35">
+        <v>1.054665802687719</v>
+      </c>
+      <c r="F35">
+        <v>0.9371297231354989</v>
+      </c>
+      <c r="G35">
+        <v>1.099308220722141</v>
+      </c>
+      <c r="H35">
+        <v>0.9711179579164309</v>
+      </c>
+      <c r="I35">
+        <v>0.9769415053482498</v>
+      </c>
+      <c r="J35">
+        <v>1.099308220722141</v>
+      </c>
+      <c r="K35">
+        <v>0.9711179579164309</v>
+      </c>
+      <c r="L35">
+        <v>0.9769415053482498</v>
+      </c>
+      <c r="M35">
+        <v>1.038124863035195</v>
+      </c>
+      <c r="N35">
+        <v>1.038124863035195</v>
+      </c>
+      <c r="O35">
+        <v>1.043638509586037</v>
+      </c>
+      <c r="P35">
+        <v>1.015789227995607</v>
+      </c>
+      <c r="Q35">
+        <v>1.015789227995607</v>
+      </c>
+      <c r="R35">
+        <v>1.004621410475813</v>
+      </c>
+      <c r="S35">
+        <v>1.004621410475813</v>
+      </c>
+      <c r="T35">
+        <v>1.002401148418592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999904149480682</v>
+      </c>
+      <c r="D36">
+        <v>0.9998950503443115</v>
+      </c>
+      <c r="E36">
+        <v>1.000009951756712</v>
+      </c>
+      <c r="F36">
+        <v>1.000102646839725</v>
+      </c>
+      <c r="G36">
+        <v>1.000072615316453</v>
+      </c>
+      <c r="H36">
+        <v>0.9998950503443115</v>
+      </c>
+      <c r="I36">
+        <v>1.000029660024509</v>
+      </c>
+      <c r="J36">
+        <v>1.000072615316453</v>
+      </c>
+      <c r="K36">
+        <v>0.9998950503443115</v>
+      </c>
+      <c r="L36">
+        <v>1.000029660024509</v>
+      </c>
+      <c r="M36">
+        <v>1.000051137670481</v>
+      </c>
+      <c r="N36">
+        <v>1.000051137670481</v>
+      </c>
+      <c r="O36">
+        <v>1.000037409032558</v>
+      </c>
+      <c r="P36">
+        <v>0.9999991085617578</v>
+      </c>
+      <c r="Q36">
+        <v>0.999999108561758</v>
+      </c>
+      <c r="R36">
+        <v>0.9999730940073963</v>
+      </c>
+      <c r="S36">
+        <v>0.9999730940073963</v>
+      </c>
+      <c r="T36">
+        <v>1.000016723204963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999483832461454</v>
+      </c>
+      <c r="D37">
+        <v>1.000078226189603</v>
+      </c>
+      <c r="E37">
+        <v>1.000131085159456</v>
+      </c>
+      <c r="F37">
+        <v>0.9996794601266105</v>
+      </c>
+      <c r="G37">
+        <v>1.000155625936138</v>
+      </c>
+      <c r="H37">
+        <v>1.000078226189603</v>
+      </c>
+      <c r="I37">
+        <v>0.9998949501251413</v>
+      </c>
+      <c r="J37">
+        <v>1.000155625936138</v>
+      </c>
+      <c r="K37">
+        <v>1.000078226189603</v>
+      </c>
+      <c r="L37">
+        <v>0.9998949501251413</v>
+      </c>
+      <c r="M37">
+        <v>1.00002528803064</v>
+      </c>
+      <c r="N37">
+        <v>1.00002528803064</v>
+      </c>
+      <c r="O37">
+        <v>1.000060553740245</v>
+      </c>
+      <c r="P37">
+        <v>1.000042934083627</v>
+      </c>
+      <c r="Q37">
+        <v>1.000042934083628</v>
+      </c>
+      <c r="R37">
+        <v>1.000051757110122</v>
+      </c>
+      <c r="S37">
+        <v>1.000051757110122</v>
+      </c>
+      <c r="T37">
+        <v>0.9999812884638491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.999766397887439</v>
+      </c>
+      <c r="D38">
+        <v>0.9995107832664485</v>
+      </c>
+      <c r="E38">
+        <v>1.00048727613319</v>
+      </c>
+      <c r="F38">
+        <v>0.9997094954719247</v>
+      </c>
+      <c r="G38">
+        <v>1.00102067293164</v>
+      </c>
+      <c r="H38">
+        <v>0.9995107832664485</v>
+      </c>
+      <c r="I38">
+        <v>0.9998715887700877</v>
+      </c>
+      <c r="J38">
+        <v>1.00102067293164</v>
+      </c>
+      <c r="K38">
+        <v>0.9995107832664485</v>
+      </c>
+      <c r="L38">
+        <v>0.9998715887700877</v>
+      </c>
+      <c r="M38">
+        <v>1.000446130850864</v>
+      </c>
+      <c r="N38">
+        <v>1.000446130850864</v>
+      </c>
+      <c r="O38">
+        <v>1.000459845944972</v>
+      </c>
+      <c r="P38">
+        <v>1.000134348322725</v>
+      </c>
+      <c r="Q38">
+        <v>1.000134348322725</v>
+      </c>
+      <c r="R38">
+        <v>0.9999784570586562</v>
+      </c>
+      <c r="S38">
+        <v>0.9999784570586562</v>
+      </c>
+      <c r="T38">
+        <v>1.000061035743455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9994234560982294</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.998401280625426</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.001157466484184</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9998072773705247</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.002658846513071</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.998401280625426</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9998441056380164</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.002658846513071</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.998401280625426</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998441056380164</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.001251476075544</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.001251476075544</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.001220139545091</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000301410925504</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000301410925505</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9998263783504849</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998263783504849</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000215405454909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.015566827993081</v>
+      </c>
+      <c r="D40">
+        <v>1.010722314181513</v>
+      </c>
+      <c r="E40">
+        <v>0.9651167792286249</v>
+      </c>
+      <c r="F40">
+        <v>1.048272598022074</v>
+      </c>
+      <c r="G40">
+        <v>0.9395980623684196</v>
+      </c>
+      <c r="H40">
+        <v>1.010722314181513</v>
+      </c>
+      <c r="I40">
+        <v>1.017560456380882</v>
+      </c>
+      <c r="J40">
+        <v>0.9395980623684196</v>
+      </c>
+      <c r="K40">
+        <v>1.010722314181513</v>
+      </c>
+      <c r="L40">
+        <v>1.017560456380882</v>
+      </c>
+      <c r="M40">
+        <v>0.9785792593746507</v>
+      </c>
+      <c r="N40">
+        <v>0.9785792593746507</v>
+      </c>
+      <c r="O40">
+        <v>0.9740917659926421</v>
+      </c>
+      <c r="P40">
+        <v>0.989293610976938</v>
+      </c>
+      <c r="Q40">
+        <v>0.989293610976938</v>
+      </c>
+      <c r="R40">
+        <v>0.9946507867780818</v>
+      </c>
+      <c r="S40">
+        <v>0.9946507867780818</v>
+      </c>
+      <c r="T40">
+        <v>0.9994728396957657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999286347431593</v>
+      </c>
+      <c r="D41">
+        <v>1.00136855936087</v>
+      </c>
+      <c r="E41">
+        <v>1.000346474838219</v>
+      </c>
+      <c r="F41">
+        <v>0.9977987886368758</v>
+      </c>
+      <c r="G41">
+        <v>0.9997303536782026</v>
+      </c>
+      <c r="H41">
+        <v>1.00136855936087</v>
+      </c>
+      <c r="I41">
+        <v>0.9993360731565099</v>
+      </c>
+      <c r="J41">
+        <v>0.9997303536782026</v>
+      </c>
+      <c r="K41">
+        <v>1.00136855936087</v>
+      </c>
+      <c r="L41">
+        <v>0.9993360731565099</v>
+      </c>
+      <c r="M41">
+        <v>0.9995332134173562</v>
+      </c>
+      <c r="N41">
+        <v>0.9995332134173562</v>
+      </c>
+      <c r="O41">
+        <v>0.9998043005576439</v>
+      </c>
+      <c r="P41">
+        <v>1.000144995398528</v>
+      </c>
+      <c r="Q41">
+        <v>1.000144995398528</v>
+      </c>
+      <c r="R41">
+        <v>1.000450886389113</v>
+      </c>
+      <c r="S41">
+        <v>1.000450886389113</v>
+      </c>
+      <c r="T41">
+        <v>0.9997514807356395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9968533459566257</v>
+      </c>
+      <c r="D42">
+        <v>0.9882956113518839</v>
+      </c>
+      <c r="E42">
+        <v>1.005949078356702</v>
+      </c>
+      <c r="F42">
+        <v>1.003024545262116</v>
+      </c>
+      <c r="G42">
+        <v>1.015617926300475</v>
+      </c>
+      <c r="H42">
+        <v>0.9882956113518839</v>
+      </c>
+      <c r="I42">
+        <v>1.000375050863484</v>
+      </c>
+      <c r="J42">
+        <v>1.015617926300475</v>
+      </c>
+      <c r="K42">
+        <v>0.9882956113518839</v>
+      </c>
+      <c r="L42">
+        <v>1.000375050863484</v>
+      </c>
+      <c r="M42">
+        <v>1.007996488581979</v>
+      </c>
+      <c r="N42">
+        <v>1.007996488581979</v>
+      </c>
+      <c r="O42">
+        <v>1.007314018506887</v>
+      </c>
+      <c r="P42">
+        <v>1.001429529505281</v>
+      </c>
+      <c r="Q42">
+        <v>1.001429529505281</v>
+      </c>
+      <c r="R42">
+        <v>0.9981460499669317</v>
+      </c>
+      <c r="S42">
+        <v>0.9981460499669317</v>
+      </c>
+      <c r="T42">
+        <v>1.001685926348548</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9993506860795215</v>
+        <v>0.9999323486020532</v>
       </c>
       <c r="D3">
-        <v>1.002730908731373</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="E3">
-        <v>0.9992867728876543</v>
+        <v>1.000154032121495</v>
       </c>
       <c r="F3">
-        <v>0.9993506860795215</v>
+        <v>0.9997794307150467</v>
       </c>
       <c r="G3">
-        <v>0.9980244968296421</v>
+        <v>1.000257849391227</v>
       </c>
       <c r="H3">
-        <v>1.001551154601444</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="I3">
-        <v>0.999305405841569</v>
+        <v>0.9999227055074312</v>
       </c>
       <c r="J3">
-        <v>1.002730908731373</v>
+        <v>1.000257849391227</v>
       </c>
       <c r="K3">
-        <v>0.9993506860795215</v>
+        <v>0.9999557826755389</v>
       </c>
       <c r="L3">
-        <v>0.9992867728876543</v>
+        <v>0.9999227055074312</v>
       </c>
       <c r="M3">
-        <v>1.001008840809514</v>
+        <v>1.000090277449329</v>
       </c>
       <c r="N3">
-        <v>1.001008840809514</v>
+        <v>1.000090277449329</v>
       </c>
       <c r="O3">
-        <v>1.001189612073491</v>
+        <v>1.000111529006718</v>
       </c>
       <c r="P3">
-        <v>1.000456122566183</v>
+        <v>1.000045445858066</v>
       </c>
       <c r="Q3">
-        <v>1.000456122566183</v>
+        <v>1.000045445858066</v>
       </c>
       <c r="R3">
-        <v>1.000179763444518</v>
+        <v>1.000023030062434</v>
       </c>
       <c r="S3">
-        <v>1.000179763444518</v>
+        <v>1.000023030062434</v>
       </c>
       <c r="T3">
-        <v>1.000041570828534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000000358168799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9987660226299283</v>
+        <v>1.015566827993081</v>
       </c>
       <c r="D4">
-        <v>1.005267007801327</v>
+        <v>1.010722314181513</v>
       </c>
       <c r="E4">
-        <v>0.9986157903374853</v>
+        <v>0.9651167792286249</v>
       </c>
       <c r="F4">
-        <v>0.9987660226299283</v>
+        <v>1.048272598022074</v>
       </c>
       <c r="G4">
-        <v>0.9961697252682862</v>
+        <v>0.9395980623684196</v>
       </c>
       <c r="H4">
-        <v>1.002993438835808</v>
+        <v>1.010722314181513</v>
       </c>
       <c r="I4">
-        <v>0.9986595878651846</v>
+        <v>1.017560456380882</v>
       </c>
       <c r="J4">
-        <v>1.005267007801327</v>
+        <v>0.9395980623684196</v>
       </c>
       <c r="K4">
-        <v>0.9987660226299283</v>
+        <v>1.010722314181513</v>
       </c>
       <c r="L4">
-        <v>0.9986157903374853</v>
+        <v>1.017560456380882</v>
       </c>
       <c r="M4">
-        <v>1.001941399069406</v>
+        <v>0.9785792593746507</v>
       </c>
       <c r="N4">
-        <v>1.001941399069406</v>
+        <v>0.9785792593746507</v>
       </c>
       <c r="O4">
-        <v>1.00229207899154</v>
+        <v>0.9740917659926421</v>
       </c>
       <c r="P4">
-        <v>1.000882940256247</v>
+        <v>0.989293610976938</v>
       </c>
       <c r="Q4">
-        <v>1.000882940256247</v>
+        <v>0.989293610976938</v>
       </c>
       <c r="R4">
-        <v>1.000353710849667</v>
+        <v>0.9946507867780818</v>
       </c>
       <c r="S4">
-        <v>1.000353710849667</v>
+        <v>0.9946507867780818</v>
       </c>
       <c r="T4">
-        <v>1.000078595456337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994728396957657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9975795900991656</v>
+        <v>0.9933098346253605</v>
       </c>
       <c r="D5">
-        <v>1.010115980170207</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="E5">
-        <v>0.9973668841847412</v>
+        <v>1.014780726729103</v>
       </c>
       <c r="F5">
-        <v>0.9975795900991656</v>
+        <v>0.9824916297478387</v>
       </c>
       <c r="G5">
-        <v>0.9927126085655762</v>
+        <v>1.026742270115273</v>
       </c>
       <c r="H5">
-        <v>1.00573909431588</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="I5">
-        <v>0.9974288967376168</v>
+        <v>0.9935524990850171</v>
       </c>
       <c r="J5">
-        <v>1.010115980170207</v>
+        <v>1.026742270115273</v>
       </c>
       <c r="K5">
-        <v>0.9975795900991656</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="L5">
-        <v>0.9973668841847412</v>
+        <v>0.9935524990850171</v>
       </c>
       <c r="M5">
-        <v>1.003741432177474</v>
+        <v>1.010147384600145</v>
       </c>
       <c r="N5">
-        <v>1.003741432177474</v>
+        <v>1.010147384600145</v>
       </c>
       <c r="O5">
-        <v>1.004407319556943</v>
+        <v>1.011691831976464</v>
       </c>
       <c r="P5">
-        <v>1.001687484818038</v>
+        <v>1.00433831004323</v>
       </c>
       <c r="Q5">
-        <v>1.001687484818038</v>
+        <v>1.00433831004323</v>
       </c>
       <c r="R5">
-        <v>1.00066051113832</v>
+        <v>1.001433772764772</v>
       </c>
       <c r="S5">
-        <v>1.00066051113832</v>
+        <v>1.001433772764772</v>
       </c>
       <c r="T5">
-        <v>1.000157175678865</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000599520205332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9964277524617765</v>
+        <v>0.9752436807015116</v>
       </c>
       <c r="D6">
-        <v>1.014845614732181</v>
+        <v>0.9711179579164309</v>
       </c>
       <c r="E6">
-        <v>0.9961459324784463</v>
+        <v>1.054665802687719</v>
       </c>
       <c r="F6">
-        <v>0.9964277524617765</v>
+        <v>0.9371297231354989</v>
       </c>
       <c r="G6">
-        <v>0.9893327016328727</v>
+        <v>1.099308220722141</v>
       </c>
       <c r="H6">
-        <v>1.008418462723975</v>
+        <v>0.9711179579164309</v>
       </c>
       <c r="I6">
-        <v>0.9962280938602887</v>
+        <v>0.9769415053482498</v>
       </c>
       <c r="J6">
-        <v>1.014845614732181</v>
+        <v>1.099308220722141</v>
       </c>
       <c r="K6">
-        <v>0.9964277524617765</v>
+        <v>0.9711179579164309</v>
       </c>
       <c r="L6">
-        <v>0.9961459324784463</v>
+        <v>0.9769415053482498</v>
       </c>
       <c r="M6">
-        <v>1.005495773605313</v>
+        <v>1.038124863035195</v>
       </c>
       <c r="N6">
-        <v>1.005495773605313</v>
+        <v>1.038124863035195</v>
       </c>
       <c r="O6">
-        <v>1.006470003311534</v>
+        <v>1.043638509586037</v>
       </c>
       <c r="P6">
-        <v>1.002473099890801</v>
+        <v>1.015789227995607</v>
       </c>
       <c r="Q6">
-        <v>1.002473099890801</v>
+        <v>1.015789227995607</v>
       </c>
       <c r="R6">
-        <v>1.000961763033545</v>
+        <v>1.004621410475813</v>
       </c>
       <c r="S6">
-        <v>1.000961763033545</v>
+        <v>1.004621410475813</v>
       </c>
       <c r="T6">
-        <v>1.00023309298159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.002401148418592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999618226932543</v>
+        <v>0.9994597469470413</v>
       </c>
       <c r="D7">
-        <v>1.000157269340373</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="E7">
-        <v>0.9999592836822765</v>
+        <v>1.001231246182253</v>
       </c>
       <c r="F7">
-        <v>0.9999618226932543</v>
+        <v>0.9981889143388815</v>
       </c>
       <c r="G7">
-        <v>0.9998870029615897</v>
+        <v>1.002049601779398</v>
       </c>
       <c r="H7">
-        <v>1.000089287118262</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="I7">
-        <v>0.9999600235855549</v>
+        <v>0.9993626445245432</v>
       </c>
       <c r="J7">
-        <v>1.000157269340373</v>
+        <v>1.002049601779398</v>
       </c>
       <c r="K7">
-        <v>0.9999618226932543</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="L7">
-        <v>0.9999592836822765</v>
+        <v>0.9993626445245432</v>
       </c>
       <c r="M7">
-        <v>1.000058276511325</v>
+        <v>1.00070612315197</v>
       </c>
       <c r="N7">
-        <v>1.000058276511325</v>
+        <v>1.00070612315197</v>
       </c>
       <c r="O7">
-        <v>1.000068613380304</v>
+        <v>1.000881164162065</v>
       </c>
       <c r="P7">
-        <v>1.000026125238635</v>
+        <v>1.000369318125119</v>
       </c>
       <c r="Q7">
-        <v>1.000026125238635</v>
+        <v>1.000369318125119</v>
       </c>
       <c r="R7">
-        <v>1.000010049602289</v>
+        <v>1.000200915611692</v>
       </c>
       <c r="S7">
-        <v>1.000010049602289</v>
+        <v>1.000200915611692</v>
       </c>
       <c r="T7">
-        <v>1.000002448230218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999979769739218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999955782675539</v>
+        <v>0.9999483832461454</v>
       </c>
       <c r="D8">
-        <v>1.000257849391226</v>
+        <v>1.000078226189603</v>
       </c>
       <c r="E8">
-        <v>0.9999227055074312</v>
+        <v>1.000131085159456</v>
       </c>
       <c r="F8">
-        <v>0.999955782675539</v>
+        <v>0.9996794601266105</v>
       </c>
       <c r="G8">
-        <v>0.9997794307150468</v>
+        <v>1.000155625936138</v>
       </c>
       <c r="H8">
-        <v>1.000154032121495</v>
+        <v>1.000078226189603</v>
       </c>
       <c r="I8">
-        <v>0.9999323486020532</v>
+        <v>0.9998949501251413</v>
       </c>
       <c r="J8">
-        <v>1.000257849391226</v>
+        <v>1.000155625936138</v>
       </c>
       <c r="K8">
-        <v>0.999955782675539</v>
+        <v>1.000078226189603</v>
       </c>
       <c r="L8">
-        <v>0.9999227055074312</v>
+        <v>0.9998949501251413</v>
       </c>
       <c r="M8">
-        <v>1.000090277449329</v>
+        <v>1.00002528803064</v>
       </c>
       <c r="N8">
-        <v>1.000090277449329</v>
+        <v>1.00002528803064</v>
       </c>
       <c r="O8">
-        <v>1.000111529006717</v>
+        <v>1.000060553740245</v>
       </c>
       <c r="P8">
-        <v>1.000045445858065</v>
+        <v>1.000042934083627</v>
       </c>
       <c r="Q8">
-        <v>1.000045445858065</v>
+        <v>1.000042934083628</v>
       </c>
       <c r="R8">
-        <v>1.000023030062434</v>
+        <v>1.000051757110122</v>
       </c>
       <c r="S8">
-        <v>1.000023030062434</v>
+        <v>1.000051757110122</v>
       </c>
       <c r="T8">
-        <v>1.000000358168798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999812884638491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999874677486413</v>
+        <v>0.9986595878651845</v>
       </c>
       <c r="D9">
-        <v>1.000306349068948</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="E9">
-        <v>0.999886488041923</v>
+        <v>1.002993438835808</v>
       </c>
       <c r="F9">
-        <v>0.9999874677486413</v>
+        <v>0.9961697252682862</v>
       </c>
       <c r="G9">
-        <v>0.9996711875247756</v>
+        <v>1.005267007801327</v>
       </c>
       <c r="H9">
-        <v>1.000195711538909</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="I9">
-        <v>0.9999159281184294</v>
+        <v>0.9986157903374853</v>
       </c>
       <c r="J9">
-        <v>1.000306349068948</v>
+        <v>1.005267007801327</v>
       </c>
       <c r="K9">
-        <v>0.9999874677486413</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="L9">
-        <v>0.999886488041923</v>
+        <v>0.9986157903374853</v>
       </c>
       <c r="M9">
-        <v>1.000096418555436</v>
+        <v>1.001941399069406</v>
       </c>
       <c r="N9">
-        <v>1.000096418555436</v>
+        <v>1.001941399069406</v>
       </c>
       <c r="O9">
-        <v>1.000129516216593</v>
+        <v>1.00229207899154</v>
       </c>
       <c r="P9">
-        <v>1.000060101619837</v>
+        <v>1.000882940256247</v>
       </c>
       <c r="Q9">
-        <v>1.000060101619837</v>
+        <v>1.000882940256247</v>
       </c>
       <c r="R9">
-        <v>1.000041943152038</v>
+        <v>1.000353710849667</v>
       </c>
       <c r="S9">
-        <v>1.000041943152038</v>
+        <v>1.000353710849667</v>
       </c>
       <c r="T9">
-        <v>0.9999938553402711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000078595456337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999133287794005</v>
+        <v>0.9748796618851651</v>
       </c>
       <c r="D10">
-        <v>1.000725683436522</v>
+        <v>0.9705900563762724</v>
       </c>
       <c r="E10">
-        <v>0.999761832616065</v>
+        <v>1.05549119530833</v>
       </c>
       <c r="F10">
-        <v>0.9999133287794005</v>
+        <v>0.9362259492081998</v>
       </c>
       <c r="G10">
-        <v>0.999314909493777</v>
+        <v>1.100746511763711</v>
       </c>
       <c r="H10">
-        <v>1.000446009023549</v>
+        <v>0.9705900563762724</v>
       </c>
       <c r="I10">
-        <v>0.9998059996122507</v>
+        <v>0.9766449281745196</v>
       </c>
       <c r="J10">
-        <v>1.000725683436522</v>
+        <v>1.100746511763711</v>
       </c>
       <c r="K10">
-        <v>0.9999133287794005</v>
+        <v>0.9705900563762724</v>
       </c>
       <c r="L10">
-        <v>0.999761832616065</v>
+        <v>0.9766449281745196</v>
       </c>
       <c r="M10">
-        <v>1.000243758026294</v>
+        <v>1.038695719969116</v>
       </c>
       <c r="N10">
-        <v>1.000243758026294</v>
+        <v>1.038695719969116</v>
       </c>
       <c r="O10">
-        <v>1.000311175025379</v>
+        <v>1.044294211748854</v>
       </c>
       <c r="P10">
-        <v>1.000133614943996</v>
+        <v>1.015993832104835</v>
       </c>
       <c r="Q10">
-        <v>1.000133614943996</v>
+        <v>1.015993832104835</v>
       </c>
       <c r="R10">
-        <v>1.000078543402847</v>
+        <v>1.004642888172694</v>
       </c>
       <c r="S10">
-        <v>1.000078543402847</v>
+        <v>1.004642888172694</v>
       </c>
       <c r="T10">
-        <v>0.9999946271602608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.002429717119366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000032890150575</v>
+        <v>1.012429888718774</v>
       </c>
       <c r="D11">
-        <v>1.000972546058044</v>
+        <v>1.008734233478577</v>
       </c>
       <c r="E11">
-        <v>0.9995990357727482</v>
+        <v>0.9722039251324605</v>
       </c>
       <c r="F11">
-        <v>1.000032890150575</v>
+        <v>1.03818114603362</v>
       </c>
       <c r="G11">
-        <v>0.9988250705724788</v>
+        <v>0.9516419914579247</v>
       </c>
       <c r="H11">
-        <v>1.000648207187128</v>
+        <v>1.008734233478577</v>
       </c>
       <c r="I11">
-        <v>0.9997255224929776</v>
+        <v>1.013950736708664</v>
       </c>
       <c r="J11">
-        <v>1.000972546058044</v>
+        <v>0.9516419914579247</v>
       </c>
       <c r="K11">
-        <v>1.000032890150575</v>
+        <v>1.008734233478577</v>
       </c>
       <c r="L11">
-        <v>0.9995990357727482</v>
+        <v>1.013950736708664</v>
       </c>
       <c r="M11">
-        <v>1.000285790915396</v>
+        <v>0.9827963640832946</v>
       </c>
       <c r="N11">
-        <v>1.000285790915396</v>
+        <v>0.9827963640832946</v>
       </c>
       <c r="O11">
-        <v>1.000406596339307</v>
+        <v>0.9792655510996832</v>
       </c>
       <c r="P11">
-        <v>1.000201490660456</v>
+        <v>0.9914423205483885</v>
       </c>
       <c r="Q11">
-        <v>1.000201490660456</v>
+        <v>0.9914423205483885</v>
       </c>
       <c r="R11">
-        <v>1.000159340532985</v>
+        <v>0.9957652987809356</v>
       </c>
       <c r="S11">
-        <v>1.000159340532985</v>
+        <v>0.9957652987809356</v>
       </c>
       <c r="T11">
-        <v>0.9999672120389919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9995236535883366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001372859618926</v>
+        <v>0.9930123406526307</v>
       </c>
       <c r="D12">
-        <v>1.008068756446385</v>
+        <v>0.9918947002631604</v>
       </c>
       <c r="E12">
-        <v>0.9959714897542213</v>
+        <v>1.015455137494735</v>
       </c>
       <c r="F12">
-        <v>1.001372859618926</v>
+        <v>0.9821217416736846</v>
       </c>
       <c r="G12">
-        <v>0.9875703724547737</v>
+        <v>1.027978840021052</v>
       </c>
       <c r="H12">
-        <v>1.006056239828719</v>
+        <v>0.9918947002631604</v>
       </c>
       <c r="I12">
-        <v>0.9975462344759496</v>
+        <v>0.9934722736315806</v>
       </c>
       <c r="J12">
-        <v>1.008068756446385</v>
+        <v>1.027978840021052</v>
       </c>
       <c r="K12">
-        <v>1.001372859618926</v>
+        <v>0.9918947002631604</v>
       </c>
       <c r="L12">
-        <v>0.9959714897542213</v>
+        <v>0.9934722736315806</v>
       </c>
       <c r="M12">
-        <v>1.002020123100303</v>
+        <v>1.010725556826316</v>
       </c>
       <c r="N12">
-        <v>1.002020123100303</v>
+        <v>1.010725556826316</v>
       </c>
       <c r="O12">
-        <v>1.003365495343108</v>
+        <v>1.012302083715789</v>
       </c>
       <c r="P12">
-        <v>1.001804368606511</v>
+        <v>1.004448604638598</v>
       </c>
       <c r="Q12">
-        <v>1.001804368606511</v>
+        <v>1.004448604638598</v>
       </c>
       <c r="R12">
-        <v>1.001696491359614</v>
+        <v>1.001310128544738</v>
       </c>
       <c r="S12">
-        <v>1.001696491359614</v>
+        <v>1.001310128544738</v>
       </c>
       <c r="T12">
-        <v>0.9994309920964958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.00065583895614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9976896484598998</v>
+        <v>1.004952774491198</v>
       </c>
       <c r="D13">
-        <v>1.004631701824764</v>
+        <v>1.004783402533056</v>
       </c>
       <c r="E13">
-        <v>0.999637608767981</v>
+        <v>0.9891578971248393</v>
       </c>
       <c r="F13">
-        <v>0.9976896484598998</v>
+        <v>1.013176053502898</v>
       </c>
       <c r="G13">
-        <v>1.000203324007114</v>
+        <v>0.9801202567172967</v>
       </c>
       <c r="H13">
-        <v>1.00164952496339</v>
+        <v>1.004783402533056</v>
       </c>
       <c r="I13">
-        <v>0.9990696881672242</v>
+        <v>1.005022473974206</v>
       </c>
       <c r="J13">
-        <v>1.004631701824764</v>
+        <v>0.9801202567172967</v>
       </c>
       <c r="K13">
-        <v>0.9976896484598998</v>
+        <v>1.004783402533056</v>
       </c>
       <c r="L13">
-        <v>0.999637608767981</v>
+        <v>1.005022473974206</v>
       </c>
       <c r="M13">
-        <v>1.002134655296373</v>
+        <v>0.9925713653457511</v>
       </c>
       <c r="N13">
-        <v>1.002134655296373</v>
+        <v>0.9925713653457511</v>
       </c>
       <c r="O13">
-        <v>1.001972945185378</v>
+        <v>0.9914335426054471</v>
       </c>
       <c r="P13">
-        <v>1.000652986350882</v>
+        <v>0.996642044408186</v>
       </c>
       <c r="Q13">
-        <v>1.000652986350882</v>
+        <v>0.996642044408186</v>
       </c>
       <c r="R13">
-        <v>0.9999121518781361</v>
+        <v>0.9986773839394034</v>
       </c>
       <c r="S13">
-        <v>0.9999121518781361</v>
+        <v>0.9986773839394034</v>
       </c>
       <c r="T13">
-        <v>1.000480249365062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9995354763905823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.95331573258043</v>
+        <v>0.9565952000000004</v>
       </c>
       <c r="D14">
-        <v>1.088649567896216</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="E14">
-        <v>0.9916664802301325</v>
+        <v>1.0958807</v>
       </c>
       <c r="F14">
-        <v>0.95331573258043</v>
+        <v>0.8899491399999993</v>
       </c>
       <c r="G14">
-        <v>0.9861396093977098</v>
+        <v>1.174102300000001</v>
       </c>
       <c r="H14">
-        <v>1.039289837741551</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="I14">
-        <v>0.9804855012770604</v>
+        <v>0.9597064399999996</v>
       </c>
       <c r="J14">
-        <v>1.088649567896216</v>
+        <v>1.174102300000001</v>
       </c>
       <c r="K14">
-        <v>0.95331573258043</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="L14">
-        <v>0.9916664802301325</v>
+        <v>0.9597064399999996</v>
       </c>
       <c r="M14">
-        <v>1.040158024063174</v>
+        <v>1.06690437</v>
       </c>
       <c r="N14">
-        <v>1.040158024063174</v>
+        <v>1.06690437</v>
       </c>
       <c r="O14">
-        <v>1.039868628622633</v>
+        <v>1.076563146666667</v>
       </c>
       <c r="P14">
-        <v>1.011210593568926</v>
+        <v>1.027614536666666</v>
       </c>
       <c r="Q14">
-        <v>1.011210593568926</v>
+        <v>1.027614536666666</v>
       </c>
       <c r="R14">
-        <v>0.996736878321802</v>
+        <v>1.00796962</v>
       </c>
       <c r="S14">
-        <v>0.996736878321802</v>
+        <v>1.00796962</v>
       </c>
       <c r="T14">
-        <v>1.006591121520517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.004211441666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.006923959725468</v>
+        <v>1.0550102</v>
       </c>
       <c r="D15">
-        <v>1.010773047747016</v>
+        <v>1.1248129</v>
       </c>
       <c r="E15">
-        <v>0.9917136827737578</v>
+        <v>0.88627042</v>
       </c>
       <c r="F15">
-        <v>1.006923959725468</v>
+        <v>1.055856</v>
       </c>
       <c r="G15">
-        <v>0.9737194417589302</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H15">
-        <v>1.010165461286561</v>
+        <v>1.1248129</v>
       </c>
       <c r="I15">
-        <v>0.9961481673531385</v>
+        <v>1.0262848</v>
       </c>
       <c r="J15">
-        <v>1.010773047747016</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K15">
-        <v>1.006923959725468</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>0.9917136827737578</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>1.001243365260387</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>1.001243365260387</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>1.004217397269112</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>1.003136896748747</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>1.003136896748747</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>1.004083662492927</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>1.004083662492927</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>0.9982406267741452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998950503443115</v>
+        <v>1.1134165</v>
       </c>
       <c r="D16">
-        <v>1.000072615316453</v>
+        <v>1.0643348</v>
       </c>
       <c r="E16">
-        <v>1.000029660024509</v>
+        <v>0.7439369599999999</v>
       </c>
       <c r="F16">
-        <v>0.9998950503443115</v>
+        <v>1.3712984</v>
       </c>
       <c r="G16">
-        <v>1.000102646839725</v>
+        <v>0.56541078</v>
       </c>
       <c r="H16">
-        <v>1.000009951756712</v>
+        <v>1.0643348</v>
       </c>
       <c r="I16">
-        <v>0.9999904149480684</v>
+        <v>1.1336147</v>
       </c>
       <c r="J16">
-        <v>1.000072615316453</v>
+        <v>0.56541078</v>
       </c>
       <c r="K16">
-        <v>0.9998950503443115</v>
+        <v>1.0643348</v>
       </c>
       <c r="L16">
-        <v>1.000029660024509</v>
+        <v>1.1336147</v>
       </c>
       <c r="M16">
-        <v>1.000051137670481</v>
+        <v>0.84951274</v>
       </c>
       <c r="N16">
-        <v>1.000051137670481</v>
+        <v>0.84951274</v>
       </c>
       <c r="O16">
-        <v>1.000037409032558</v>
+        <v>0.8143208133333332</v>
       </c>
       <c r="P16">
-        <v>0.9999991085617577</v>
+        <v>0.9211200933333332</v>
       </c>
       <c r="Q16">
-        <v>0.9999991085617577</v>
+        <v>0.9211200933333332</v>
       </c>
       <c r="R16">
-        <v>0.9999730940073961</v>
+        <v>0.95692377</v>
       </c>
       <c r="S16">
-        <v>0.9999730940073961</v>
+        <v>0.95692377</v>
       </c>
       <c r="T16">
-        <v>1.000016723204963</v>
+        <v>0.99866869</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000078226189603</v>
+        <v>1.0515197</v>
       </c>
       <c r="D17">
-        <v>1.000155625936137</v>
+        <v>1.072276</v>
       </c>
       <c r="E17">
-        <v>0.9998949501251413</v>
+        <v>0.88909391</v>
       </c>
       <c r="F17">
-        <v>1.000078226189603</v>
+        <v>1.1094311</v>
       </c>
       <c r="G17">
-        <v>0.9996794601266105</v>
+        <v>0.78643527</v>
       </c>
       <c r="H17">
-        <v>1.000131085159456</v>
+        <v>1.072276</v>
       </c>
       <c r="I17">
-        <v>0.9999483832461453</v>
+        <v>1.0429781</v>
       </c>
       <c r="J17">
-        <v>1.000155625936137</v>
+        <v>0.78643527</v>
       </c>
       <c r="K17">
-        <v>1.000078226189603</v>
+        <v>1.072276</v>
       </c>
       <c r="L17">
-        <v>0.9998949501251413</v>
+        <v>1.0429781</v>
       </c>
       <c r="M17">
-        <v>1.000025288030639</v>
+        <v>0.9147066850000001</v>
       </c>
       <c r="N17">
-        <v>1.000025288030639</v>
+        <v>0.9147066850000001</v>
       </c>
       <c r="O17">
-        <v>1.000060553740245</v>
+        <v>0.9061690933333334</v>
       </c>
       <c r="P17">
-        <v>1.000042934083627</v>
+        <v>0.9672297900000001</v>
       </c>
       <c r="Q17">
-        <v>1.000042934083627</v>
+        <v>0.9672297900000001</v>
       </c>
       <c r="R17">
-        <v>1.000051757110121</v>
+        <v>0.9934913425</v>
       </c>
       <c r="S17">
-        <v>1.000051757110121</v>
+        <v>0.9934913425</v>
       </c>
       <c r="T17">
-        <v>0.9999812884638489</v>
+        <v>0.9919556800000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9995107832664486</v>
+        <v>0.9849346558904108</v>
       </c>
       <c r="D18">
-        <v>1.00102067293164</v>
+        <v>0.9870405756164383</v>
       </c>
       <c r="E18">
-        <v>0.9998715887700877</v>
+        <v>1.033740936164383</v>
       </c>
       <c r="F18">
-        <v>0.9995107832664486</v>
+        <v>0.9557608646575342</v>
       </c>
       <c r="G18">
-        <v>0.9997094954719248</v>
+        <v>1.058887536712328</v>
       </c>
       <c r="H18">
-        <v>1.000487276133189</v>
+        <v>0.9870405756164383</v>
       </c>
       <c r="I18">
-        <v>0.999766397887439</v>
+        <v>0.9840680405479449</v>
       </c>
       <c r="J18">
-        <v>1.00102067293164</v>
+        <v>1.058887536712328</v>
       </c>
       <c r="K18">
-        <v>0.9995107832664486</v>
+        <v>0.9870405756164383</v>
       </c>
       <c r="L18">
-        <v>0.9998715887700877</v>
+        <v>0.9840680405479449</v>
       </c>
       <c r="M18">
-        <v>1.000446130850864</v>
+        <v>1.021477788630137</v>
       </c>
       <c r="N18">
-        <v>1.000446130850864</v>
+        <v>1.021477788630137</v>
       </c>
       <c r="O18">
-        <v>1.000459845944972</v>
+        <v>1.025565504474885</v>
       </c>
       <c r="P18">
-        <v>1.000134348322725</v>
+        <v>1.009998717625571</v>
       </c>
       <c r="Q18">
-        <v>1.000134348322725</v>
+        <v>1.009998717625571</v>
       </c>
       <c r="R18">
-        <v>0.9999784570586562</v>
+        <v>1.004259182123288</v>
       </c>
       <c r="S18">
-        <v>0.9999784570586562</v>
+        <v>1.004259182123288</v>
       </c>
       <c r="T18">
-        <v>1.000061035743455</v>
+        <v>1.00073876826484</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.998401280625426</v>
+        <v>1.01822226</v>
       </c>
       <c r="D19">
-        <v>1.002658846513071</v>
+        <v>0.9971749852631575</v>
       </c>
       <c r="E19">
-        <v>0.9998441056380167</v>
+        <v>0.957010027368421</v>
       </c>
       <c r="F19">
-        <v>0.998401280625426</v>
+        <v>1.078447545263158</v>
       </c>
       <c r="G19">
-        <v>0.9998072773705247</v>
+        <v>0.9354557094736843</v>
       </c>
       <c r="H19">
-        <v>1.001157466484184</v>
+        <v>0.9971749852631575</v>
       </c>
       <c r="I19">
-        <v>0.9994234560982294</v>
+        <v>1.026883695789474</v>
       </c>
       <c r="J19">
-        <v>1.002658846513071</v>
+        <v>0.9354557094736843</v>
       </c>
       <c r="K19">
-        <v>0.998401280625426</v>
+        <v>0.9971749852631575</v>
       </c>
       <c r="L19">
-        <v>0.9998441056380167</v>
+        <v>1.026883695789474</v>
       </c>
       <c r="M19">
-        <v>1.001251476075544</v>
+        <v>0.9811697026315791</v>
       </c>
       <c r="N19">
-        <v>1.001251476075544</v>
+        <v>0.9811697026315791</v>
       </c>
       <c r="O19">
-        <v>1.001220139545091</v>
+        <v>0.9731164775438597</v>
       </c>
       <c r="P19">
-        <v>1.000301410925505</v>
+        <v>0.9865047968421052</v>
       </c>
       <c r="Q19">
-        <v>1.000301410925505</v>
+        <v>0.9865047968421052</v>
       </c>
       <c r="R19">
-        <v>0.9998263783504849</v>
+        <v>0.9891723439473683</v>
       </c>
       <c r="S19">
-        <v>0.9998263783504849</v>
+        <v>0.9891723439473683</v>
       </c>
       <c r="T19">
-        <v>1.000215405454909</v>
+        <v>1.002199037192982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.042962956842105</v>
+      </c>
+      <c r="D20">
+        <v>1.059571243157895</v>
+      </c>
+      <c r="E20">
+        <v>0.9073919410526314</v>
+      </c>
+      <c r="F20">
+        <v>1.092339352105263</v>
+      </c>
+      <c r="G20">
+        <v>0.8222282600000002</v>
+      </c>
+      <c r="H20">
+        <v>1.059571243157895</v>
+      </c>
+      <c r="I20">
+        <v>1.036128273157895</v>
+      </c>
+      <c r="J20">
+        <v>0.8222282600000002</v>
+      </c>
+      <c r="K20">
+        <v>1.059571243157895</v>
+      </c>
+      <c r="L20">
+        <v>1.036128273157895</v>
+      </c>
+      <c r="M20">
+        <v>0.9291782665789474</v>
+      </c>
+      <c r="N20">
+        <v>0.9291782665789474</v>
+      </c>
+      <c r="O20">
+        <v>0.9219161580701755</v>
+      </c>
+      <c r="P20">
+        <v>0.9726425921052632</v>
+      </c>
+      <c r="Q20">
+        <v>0.9726425921052632</v>
+      </c>
+      <c r="R20">
+        <v>0.9943747548684211</v>
+      </c>
+      <c r="S20">
+        <v>0.9943747548684211</v>
+      </c>
+      <c r="T20">
+        <v>0.9934370043859649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9804855012770606</v>
+      </c>
+      <c r="D21">
+        <v>0.95331573258043</v>
+      </c>
+      <c r="E21">
+        <v>1.039289837741551</v>
+      </c>
+      <c r="F21">
+        <v>0.9861396093977098</v>
+      </c>
+      <c r="G21">
+        <v>1.088649567896216</v>
+      </c>
+      <c r="H21">
+        <v>0.95331573258043</v>
+      </c>
+      <c r="I21">
+        <v>0.9916664802301325</v>
+      </c>
+      <c r="J21">
+        <v>1.088649567896216</v>
+      </c>
+      <c r="K21">
+        <v>0.95331573258043</v>
+      </c>
+      <c r="L21">
+        <v>0.9916664802301325</v>
+      </c>
+      <c r="M21">
+        <v>1.040158024063174</v>
+      </c>
+      <c r="N21">
+        <v>1.040158024063174</v>
+      </c>
+      <c r="O21">
+        <v>1.039868628622633</v>
+      </c>
+      <c r="P21">
+        <v>1.011210593568926</v>
+      </c>
+      <c r="Q21">
+        <v>1.011210593568926</v>
+      </c>
+      <c r="R21">
+        <v>0.996736878321802</v>
+      </c>
+      <c r="S21">
+        <v>0.996736878321802</v>
+      </c>
+      <c r="T21">
+        <v>1.006591121520517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9961481673531385</v>
+      </c>
+      <c r="D22">
+        <v>1.006923959725468</v>
+      </c>
+      <c r="E22">
+        <v>1.010165461286561</v>
+      </c>
+      <c r="F22">
+        <v>0.9737194417589302</v>
+      </c>
+      <c r="G22">
+        <v>1.010773047747016</v>
+      </c>
+      <c r="H22">
+        <v>1.006923959725468</v>
+      </c>
+      <c r="I22">
+        <v>0.9917136827737578</v>
+      </c>
+      <c r="J22">
+        <v>1.010773047747016</v>
+      </c>
+      <c r="K22">
+        <v>1.006923959725468</v>
+      </c>
+      <c r="L22">
+        <v>0.9917136827737578</v>
+      </c>
+      <c r="M22">
+        <v>1.001243365260387</v>
+      </c>
+      <c r="N22">
+        <v>1.001243365260387</v>
+      </c>
+      <c r="O22">
+        <v>1.004217397269112</v>
+      </c>
+      <c r="P22">
+        <v>1.003136896748747</v>
+      </c>
+      <c r="Q22">
+        <v>1.003136896748747</v>
+      </c>
+      <c r="R22">
+        <v>1.004083662492927</v>
+      </c>
+      <c r="S22">
+        <v>1.004083662492927</v>
+      </c>
+      <c r="T22">
+        <v>0.9982406267741452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9975462344759496</v>
+      </c>
+      <c r="D23">
+        <v>1.001372859618926</v>
+      </c>
+      <c r="E23">
+        <v>1.00605623982872</v>
+      </c>
+      <c r="F23">
+        <v>0.9875703724547737</v>
+      </c>
+      <c r="G23">
+        <v>1.008068756446385</v>
+      </c>
+      <c r="H23">
+        <v>1.001372859618926</v>
+      </c>
+      <c r="I23">
+        <v>0.9959714897542213</v>
+      </c>
+      <c r="J23">
+        <v>1.008068756446385</v>
+      </c>
+      <c r="K23">
+        <v>1.001372859618926</v>
+      </c>
+      <c r="L23">
+        <v>0.9959714897542213</v>
+      </c>
+      <c r="M23">
+        <v>1.002020123100303</v>
+      </c>
+      <c r="N23">
+        <v>1.002020123100303</v>
+      </c>
+      <c r="O23">
+        <v>1.003365495343109</v>
+      </c>
+      <c r="P23">
+        <v>1.001804368606511</v>
+      </c>
+      <c r="Q23">
+        <v>1.001804368606511</v>
+      </c>
+      <c r="R23">
+        <v>1.001696491359614</v>
+      </c>
+      <c r="S23">
+        <v>1.001696491359614</v>
+      </c>
+      <c r="T23">
+        <v>0.9994309920964958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.999069688167224</v>
+      </c>
+      <c r="D24">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="E24">
+        <v>1.00164952496339</v>
+      </c>
+      <c r="F24">
+        <v>1.000203324007115</v>
+      </c>
+      <c r="G24">
+        <v>1.004631701824764</v>
+      </c>
+      <c r="H24">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="I24">
+        <v>0.999637608767981</v>
+      </c>
+      <c r="J24">
+        <v>1.004631701824764</v>
+      </c>
+      <c r="K24">
+        <v>0.9976896484598996</v>
+      </c>
+      <c r="L24">
+        <v>0.999637608767981</v>
+      </c>
+      <c r="M24">
+        <v>1.002134655296373</v>
+      </c>
+      <c r="N24">
+        <v>1.002134655296373</v>
+      </c>
+      <c r="O24">
+        <v>1.001972945185378</v>
+      </c>
+      <c r="P24">
+        <v>1.000652986350882</v>
+      </c>
+      <c r="Q24">
+        <v>1.000652986350882</v>
+      </c>
+      <c r="R24">
+        <v>0.999912151878136</v>
+      </c>
+      <c r="S24">
+        <v>0.999912151878136</v>
+      </c>
+      <c r="T24">
+        <v>1.000480249365062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.047464443399467</v>
+      </c>
+      <c r="D25">
+        <v>1.072396956087808</v>
+      </c>
+      <c r="E25">
+        <v>0.8983603002206217</v>
+      </c>
+      <c r="F25">
+        <v>1.093503787102327</v>
+      </c>
+      <c r="G25">
+        <v>0.80140599766924</v>
+      </c>
+      <c r="H25">
+        <v>1.072396956087808</v>
+      </c>
+      <c r="I25">
+        <v>1.037204155712076</v>
+      </c>
+      <c r="J25">
+        <v>0.80140599766924</v>
+      </c>
+      <c r="K25">
+        <v>1.072396956087808</v>
+      </c>
+      <c r="L25">
+        <v>1.037204155712076</v>
+      </c>
+      <c r="M25">
+        <v>0.9193050766906579</v>
+      </c>
+      <c r="N25">
+        <v>0.9193050766906579</v>
+      </c>
+      <c r="O25">
+        <v>0.9123234845339793</v>
+      </c>
+      <c r="P25">
+        <v>0.9703357031563747</v>
+      </c>
+      <c r="Q25">
+        <v>0.9703357031563747</v>
+      </c>
+      <c r="R25">
+        <v>0.9958510163892331</v>
+      </c>
+      <c r="S25">
+        <v>0.9958510163892331</v>
+      </c>
+      <c r="T25">
+        <v>0.9917226066985899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.011495768402609</v>
+      </c>
+      <c r="D26">
+        <v>1.000896832837664</v>
+      </c>
+      <c r="E26">
+        <v>0.9737590419203366</v>
+      </c>
+      <c r="F26">
+        <v>1.043896766154318</v>
+      </c>
+      <c r="G26">
+        <v>0.9573227469608621</v>
+      </c>
+      <c r="H26">
+        <v>1.000896832837664</v>
+      </c>
+      <c r="I26">
+        <v>1.015857465935288</v>
+      </c>
+      <c r="J26">
+        <v>0.9573227469608621</v>
+      </c>
+      <c r="K26">
+        <v>1.000896832837664</v>
+      </c>
+      <c r="L26">
+        <v>1.015857465935288</v>
+      </c>
+      <c r="M26">
+        <v>0.9865901064480749</v>
+      </c>
+      <c r="N26">
+        <v>0.9865901064480749</v>
+      </c>
+      <c r="O26">
+        <v>0.9823130849388289</v>
+      </c>
+      <c r="P26">
+        <v>0.9913590152446045</v>
+      </c>
+      <c r="Q26">
+        <v>0.9913590152446045</v>
+      </c>
+      <c r="R26">
+        <v>0.9937434696428693</v>
+      </c>
+      <c r="S26">
+        <v>0.9937434696428693</v>
+      </c>
+      <c r="T26">
+        <v>1.000538103701846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.997288518835915</v>
+      </c>
+      <c r="D27">
+        <v>0.9981898270865347</v>
+      </c>
+      <c r="E27">
+        <v>1.005575025028094</v>
+      </c>
+      <c r="F27">
+        <v>0.9932973393648273</v>
+      </c>
+      <c r="G27">
+        <v>1.011391823810548</v>
+      </c>
+      <c r="H27">
+        <v>0.9981898270865347</v>
+      </c>
+      <c r="I27">
+        <v>0.9969176110335771</v>
+      </c>
+      <c r="J27">
+        <v>1.011391823810548</v>
+      </c>
+      <c r="K27">
+        <v>0.9981898270865347</v>
+      </c>
+      <c r="L27">
+        <v>0.9969176110335771</v>
+      </c>
+      <c r="M27">
+        <v>1.004154717422062</v>
+      </c>
+      <c r="N27">
+        <v>1.004154717422062</v>
+      </c>
+      <c r="O27">
+        <v>1.00462815329074</v>
+      </c>
+      <c r="P27">
+        <v>1.002166420643553</v>
+      </c>
+      <c r="Q27">
+        <v>1.002166420643553</v>
+      </c>
+      <c r="R27">
+        <v>1.001172272254298</v>
+      </c>
+      <c r="S27">
+        <v>1.001172272254298</v>
+      </c>
+      <c r="T27">
+        <v>1.000443357526583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.007632642201768</v>
+      </c>
+      <c r="D28">
+        <v>1.007761189959991</v>
+      </c>
+      <c r="E28">
+        <v>0.9832530533685493</v>
+      </c>
+      <c r="F28">
+        <v>1.020076074922675</v>
+      </c>
+      <c r="G28">
+        <v>0.9693708486522077</v>
+      </c>
+      <c r="H28">
+        <v>1.007761189959991</v>
+      </c>
+      <c r="I28">
+        <v>1.007579736868764</v>
+      </c>
+      <c r="J28">
+        <v>0.9693708486522077</v>
+      </c>
+      <c r="K28">
+        <v>1.007761189959991</v>
+      </c>
+      <c r="L28">
+        <v>1.007579736868764</v>
+      </c>
+      <c r="M28">
+        <v>0.9884752927604861</v>
+      </c>
+      <c r="N28">
+        <v>0.9884752927604861</v>
+      </c>
+      <c r="O28">
+        <v>0.9867345462965073</v>
+      </c>
+      <c r="P28">
+        <v>0.994903925160321</v>
+      </c>
+      <c r="Q28">
+        <v>0.994903925160321</v>
+      </c>
+      <c r="R28">
+        <v>0.9981182413602383</v>
+      </c>
+      <c r="S28">
+        <v>0.9981182413602383</v>
+      </c>
+      <c r="T28">
+        <v>0.9992789243289923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.015552678210941</v>
+      </c>
+      <c r="D29">
+        <v>1.022287625310784</v>
+      </c>
+      <c r="E29">
+        <v>0.966444820919612</v>
+      </c>
+      <c r="F29">
+        <v>1.032860145547105</v>
+      </c>
+      <c r="G29">
+        <v>0.935588924828513</v>
+      </c>
+      <c r="H29">
+        <v>1.022287625310784</v>
+      </c>
+      <c r="I29">
+        <v>1.012781073982057</v>
+      </c>
+      <c r="J29">
+        <v>0.935588924828513</v>
+      </c>
+      <c r="K29">
+        <v>1.022287625310784</v>
+      </c>
+      <c r="L29">
+        <v>1.012781073982057</v>
+      </c>
+      <c r="M29">
+        <v>0.9741849994052849</v>
+      </c>
+      <c r="N29">
+        <v>0.9741849994052849</v>
+      </c>
+      <c r="O29">
+        <v>0.9716049399100606</v>
+      </c>
+      <c r="P29">
+        <v>0.9902192080404514</v>
+      </c>
+      <c r="Q29">
+        <v>0.9902192080404514</v>
+      </c>
+      <c r="R29">
+        <v>0.9982363123580347</v>
+      </c>
+      <c r="S29">
+        <v>0.9982363123580347</v>
+      </c>
+      <c r="T29">
+        <v>0.9975858781331688</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.015566827993081</v>
+        <v>0.9935358148962338</v>
       </c>
       <c r="D4">
-        <v>1.010722314181513</v>
+        <v>0.9925388219412847</v>
       </c>
       <c r="E4">
-        <v>0.9651167792286249</v>
+        <v>1.014205226954173</v>
       </c>
       <c r="F4">
-        <v>1.048272598022074</v>
+        <v>0.9837499675363428</v>
       </c>
       <c r="G4">
-        <v>0.9395980623684196</v>
+        <v>1.026038819866567</v>
       </c>
       <c r="H4">
-        <v>1.010722314181513</v>
+        <v>0.9925388219412847</v>
       </c>
       <c r="I4">
-        <v>1.017560456380882</v>
+        <v>0.9939461001192986</v>
       </c>
       <c r="J4">
-        <v>0.9395980623684196</v>
+        <v>1.026038819866567</v>
       </c>
       <c r="K4">
-        <v>1.010722314181513</v>
+        <v>0.9925388219412847</v>
       </c>
       <c r="L4">
-        <v>1.017560456380882</v>
+        <v>0.9939461001192986</v>
       </c>
       <c r="M4">
-        <v>0.9785792593746507</v>
+        <v>1.009992459992933</v>
       </c>
       <c r="N4">
-        <v>0.9785792593746507</v>
+        <v>1.009992459992933</v>
       </c>
       <c r="O4">
-        <v>0.9740917659926421</v>
+        <v>1.011396715646679</v>
       </c>
       <c r="P4">
-        <v>0.989293610976938</v>
+        <v>1.004174580642383</v>
       </c>
       <c r="Q4">
-        <v>0.989293610976938</v>
+        <v>1.004174580642383</v>
       </c>
       <c r="R4">
-        <v>0.9946507867780818</v>
+        <v>1.001265640967109</v>
       </c>
       <c r="S4">
-        <v>0.9946507867780818</v>
+        <v>1.001265640967109</v>
       </c>
       <c r="T4">
-        <v>0.9994728396957657</v>
+        <v>1.000669125218983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9933098346253605</v>
+        <v>1.049557009470879</v>
       </c>
       <c r="D5">
-        <v>0.9927201609293992</v>
+        <v>1.066626035530433</v>
       </c>
       <c r="E5">
-        <v>1.014780726729103</v>
+        <v>0.8928563390900275</v>
       </c>
       <c r="F5">
-        <v>0.9824916297478387</v>
+        <v>1.109593656675581</v>
       </c>
       <c r="G5">
-        <v>1.026742270115273</v>
+        <v>0.7958312323259016</v>
       </c>
       <c r="H5">
-        <v>0.9927201609293992</v>
+        <v>1.066626035530433</v>
       </c>
       <c r="I5">
-        <v>0.9935524990850171</v>
+        <v>1.042532721849678</v>
       </c>
       <c r="J5">
-        <v>1.026742270115273</v>
+        <v>0.7958312323259016</v>
       </c>
       <c r="K5">
-        <v>0.9927201609293992</v>
+        <v>1.066626035530433</v>
       </c>
       <c r="L5">
-        <v>0.9935524990850171</v>
+        <v>1.042532721849678</v>
       </c>
       <c r="M5">
-        <v>1.010147384600145</v>
+        <v>0.9191819770877899</v>
       </c>
       <c r="N5">
-        <v>1.010147384600145</v>
+        <v>0.9191819770877899</v>
       </c>
       <c r="O5">
-        <v>1.011691831976464</v>
+        <v>0.9104067644218691</v>
       </c>
       <c r="P5">
-        <v>1.00433831004323</v>
+        <v>0.9683299965686709</v>
       </c>
       <c r="Q5">
-        <v>1.00433831004323</v>
+        <v>0.9683299965686709</v>
       </c>
       <c r="R5">
-        <v>1.001433772764772</v>
+        <v>0.9929040063091114</v>
       </c>
       <c r="S5">
-        <v>1.001433772764772</v>
+        <v>0.9929040063091114</v>
       </c>
       <c r="T5">
-        <v>1.000599520205332</v>
+        <v>0.9928328324904165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9752436807015116</v>
+        <v>1.015566827993081</v>
       </c>
       <c r="D6">
-        <v>0.9711179579164309</v>
+        <v>1.010722314181513</v>
       </c>
       <c r="E6">
-        <v>1.054665802687719</v>
+        <v>0.9651167792286249</v>
       </c>
       <c r="F6">
-        <v>0.9371297231354989</v>
+        <v>1.048272598022074</v>
       </c>
       <c r="G6">
-        <v>1.099308220722141</v>
+        <v>0.9395980623684196</v>
       </c>
       <c r="H6">
-        <v>0.9711179579164309</v>
+        <v>1.010722314181513</v>
       </c>
       <c r="I6">
-        <v>0.9769415053482498</v>
+        <v>1.017560456380882</v>
       </c>
       <c r="J6">
-        <v>1.099308220722141</v>
+        <v>0.9395980623684196</v>
       </c>
       <c r="K6">
-        <v>0.9711179579164309</v>
+        <v>1.010722314181513</v>
       </c>
       <c r="L6">
-        <v>0.9769415053482498</v>
+        <v>1.017560456380882</v>
       </c>
       <c r="M6">
-        <v>1.038124863035195</v>
+        <v>0.9785792593746507</v>
       </c>
       <c r="N6">
-        <v>1.038124863035195</v>
+        <v>0.9785792593746507</v>
       </c>
       <c r="O6">
-        <v>1.043638509586037</v>
+        <v>0.9740917659926421</v>
       </c>
       <c r="P6">
-        <v>1.015789227995607</v>
+        <v>0.989293610976938</v>
       </c>
       <c r="Q6">
-        <v>1.015789227995607</v>
+        <v>0.989293610976938</v>
       </c>
       <c r="R6">
-        <v>1.004621410475813</v>
+        <v>0.9946507867780818</v>
       </c>
       <c r="S6">
-        <v>1.004621410475813</v>
+        <v>0.9946507867780818</v>
       </c>
       <c r="T6">
-        <v>1.002401148418592</v>
+        <v>0.9994728396957657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994597469470413</v>
+        <v>0.9933098346253605</v>
       </c>
       <c r="D7">
-        <v>0.9996957080714145</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="E7">
-        <v>1.001231246182253</v>
+        <v>1.014780726729103</v>
       </c>
       <c r="F7">
-        <v>0.9981889143388815</v>
+        <v>0.9824916297478387</v>
       </c>
       <c r="G7">
-        <v>1.002049601779398</v>
+        <v>1.026742270115273</v>
       </c>
       <c r="H7">
-        <v>0.9996957080714145</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="I7">
-        <v>0.9993626445245432</v>
+        <v>0.9935524990850171</v>
       </c>
       <c r="J7">
-        <v>1.002049601779398</v>
+        <v>1.026742270115273</v>
       </c>
       <c r="K7">
-        <v>0.9996957080714145</v>
+        <v>0.9927201609293992</v>
       </c>
       <c r="L7">
-        <v>0.9993626445245432</v>
+        <v>0.9935524990850171</v>
       </c>
       <c r="M7">
-        <v>1.00070612315197</v>
+        <v>1.010147384600145</v>
       </c>
       <c r="N7">
-        <v>1.00070612315197</v>
+        <v>1.010147384600145</v>
       </c>
       <c r="O7">
-        <v>1.000881164162065</v>
+        <v>1.011691831976464</v>
       </c>
       <c r="P7">
-        <v>1.000369318125119</v>
+        <v>1.00433831004323</v>
       </c>
       <c r="Q7">
-        <v>1.000369318125119</v>
+        <v>1.00433831004323</v>
       </c>
       <c r="R7">
-        <v>1.000200915611692</v>
+        <v>1.001433772764772</v>
       </c>
       <c r="S7">
-        <v>1.000200915611692</v>
+        <v>1.001433772764772</v>
       </c>
       <c r="T7">
-        <v>0.9999979769739218</v>
+        <v>1.000599520205332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999483832461454</v>
+        <v>0.9752436807015116</v>
       </c>
       <c r="D8">
-        <v>1.000078226189603</v>
+        <v>0.9711179579164309</v>
       </c>
       <c r="E8">
-        <v>1.000131085159456</v>
+        <v>1.054665802687719</v>
       </c>
       <c r="F8">
-        <v>0.9996794601266105</v>
+        <v>0.9371297231354989</v>
       </c>
       <c r="G8">
-        <v>1.000155625936138</v>
+        <v>1.099308220722141</v>
       </c>
       <c r="H8">
-        <v>1.000078226189603</v>
+        <v>0.9711179579164309</v>
       </c>
       <c r="I8">
-        <v>0.9998949501251413</v>
+        <v>0.9769415053482498</v>
       </c>
       <c r="J8">
-        <v>1.000155625936138</v>
+        <v>1.099308220722141</v>
       </c>
       <c r="K8">
-        <v>1.000078226189603</v>
+        <v>0.9711179579164309</v>
       </c>
       <c r="L8">
-        <v>0.9998949501251413</v>
+        <v>0.9769415053482498</v>
       </c>
       <c r="M8">
-        <v>1.00002528803064</v>
+        <v>1.038124863035195</v>
       </c>
       <c r="N8">
-        <v>1.00002528803064</v>
+        <v>1.038124863035195</v>
       </c>
       <c r="O8">
-        <v>1.000060553740245</v>
+        <v>1.043638509586037</v>
       </c>
       <c r="P8">
-        <v>1.000042934083627</v>
+        <v>1.015789227995607</v>
       </c>
       <c r="Q8">
-        <v>1.000042934083628</v>
+        <v>1.015789227995607</v>
       </c>
       <c r="R8">
-        <v>1.000051757110122</v>
+        <v>1.004621410475813</v>
       </c>
       <c r="S8">
-        <v>1.000051757110122</v>
+        <v>1.004621410475813</v>
       </c>
       <c r="T8">
-        <v>0.9999812884638491</v>
+        <v>1.002401148418592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9986595878651845</v>
+        <v>0.9994597469470413</v>
       </c>
       <c r="D9">
-        <v>0.9987660226299283</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="E9">
-        <v>1.002993438835808</v>
+        <v>1.001231246182253</v>
       </c>
       <c r="F9">
-        <v>0.9961697252682862</v>
+        <v>0.9981889143388815</v>
       </c>
       <c r="G9">
-        <v>1.005267007801327</v>
+        <v>1.002049601779398</v>
       </c>
       <c r="H9">
-        <v>0.9987660226299283</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="I9">
-        <v>0.9986157903374853</v>
+        <v>0.9993626445245432</v>
       </c>
       <c r="J9">
-        <v>1.005267007801327</v>
+        <v>1.002049601779398</v>
       </c>
       <c r="K9">
-        <v>0.9987660226299283</v>
+        <v>0.9996957080714145</v>
       </c>
       <c r="L9">
-        <v>0.9986157903374853</v>
+        <v>0.9993626445245432</v>
       </c>
       <c r="M9">
-        <v>1.001941399069406</v>
+        <v>1.00070612315197</v>
       </c>
       <c r="N9">
-        <v>1.001941399069406</v>
+        <v>1.00070612315197</v>
       </c>
       <c r="O9">
-        <v>1.00229207899154</v>
+        <v>1.000881164162065</v>
       </c>
       <c r="P9">
-        <v>1.000882940256247</v>
+        <v>1.000369318125119</v>
       </c>
       <c r="Q9">
-        <v>1.000882940256247</v>
+        <v>1.000369318125119</v>
       </c>
       <c r="R9">
-        <v>1.000353710849667</v>
+        <v>1.000200915611692</v>
       </c>
       <c r="S9">
-        <v>1.000353710849667</v>
+        <v>1.000200915611692</v>
       </c>
       <c r="T9">
-        <v>1.000078595456337</v>
+        <v>0.9999979769739218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9748796618851651</v>
+        <v>0.9999483832461454</v>
       </c>
       <c r="D10">
-        <v>0.9705900563762724</v>
+        <v>1.000078226189603</v>
       </c>
       <c r="E10">
-        <v>1.05549119530833</v>
+        <v>1.000131085159456</v>
       </c>
       <c r="F10">
-        <v>0.9362259492081998</v>
+        <v>0.9996794601266105</v>
       </c>
       <c r="G10">
-        <v>1.100746511763711</v>
+        <v>1.000155625936138</v>
       </c>
       <c r="H10">
-        <v>0.9705900563762724</v>
+        <v>1.000078226189603</v>
       </c>
       <c r="I10">
-        <v>0.9766449281745196</v>
+        <v>0.9998949501251413</v>
       </c>
       <c r="J10">
-        <v>1.100746511763711</v>
+        <v>1.000155625936138</v>
       </c>
       <c r="K10">
-        <v>0.9705900563762724</v>
+        <v>1.000078226189603</v>
       </c>
       <c r="L10">
-        <v>0.9766449281745196</v>
+        <v>0.9998949501251413</v>
       </c>
       <c r="M10">
-        <v>1.038695719969116</v>
+        <v>1.00002528803064</v>
       </c>
       <c r="N10">
-        <v>1.038695719969116</v>
+        <v>1.00002528803064</v>
       </c>
       <c r="O10">
-        <v>1.044294211748854</v>
+        <v>1.000060553740245</v>
       </c>
       <c r="P10">
-        <v>1.015993832104835</v>
+        <v>1.000042934083627</v>
       </c>
       <c r="Q10">
-        <v>1.015993832104835</v>
+        <v>1.000042934083628</v>
       </c>
       <c r="R10">
-        <v>1.004642888172694</v>
+        <v>1.000051757110122</v>
       </c>
       <c r="S10">
-        <v>1.004642888172694</v>
+        <v>1.000051757110122</v>
       </c>
       <c r="T10">
-        <v>1.002429717119366</v>
+        <v>0.9999812884638491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.012429888718774</v>
+        <v>0.9986595878651845</v>
       </c>
       <c r="D11">
-        <v>1.008734233478577</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="E11">
-        <v>0.9722039251324605</v>
+        <v>1.002993438835808</v>
       </c>
       <c r="F11">
-        <v>1.03818114603362</v>
+        <v>0.9961697252682862</v>
       </c>
       <c r="G11">
-        <v>0.9516419914579247</v>
+        <v>1.005267007801327</v>
       </c>
       <c r="H11">
-        <v>1.008734233478577</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="I11">
-        <v>1.013950736708664</v>
+        <v>0.9986157903374853</v>
       </c>
       <c r="J11">
-        <v>0.9516419914579247</v>
+        <v>1.005267007801327</v>
       </c>
       <c r="K11">
-        <v>1.008734233478577</v>
+        <v>0.9987660226299283</v>
       </c>
       <c r="L11">
-        <v>1.013950736708664</v>
+        <v>0.9986157903374853</v>
       </c>
       <c r="M11">
-        <v>0.9827963640832946</v>
+        <v>1.001941399069406</v>
       </c>
       <c r="N11">
-        <v>0.9827963640832946</v>
+        <v>1.001941399069406</v>
       </c>
       <c r="O11">
-        <v>0.9792655510996832</v>
+        <v>1.00229207899154</v>
       </c>
       <c r="P11">
-        <v>0.9914423205483885</v>
+        <v>1.000882940256247</v>
       </c>
       <c r="Q11">
-        <v>0.9914423205483885</v>
+        <v>1.000882940256247</v>
       </c>
       <c r="R11">
-        <v>0.9957652987809356</v>
+        <v>1.000353710849667</v>
       </c>
       <c r="S11">
-        <v>0.9957652987809356</v>
+        <v>1.000353710849667</v>
       </c>
       <c r="T11">
-        <v>0.9995236535883366</v>
+        <v>1.000078595456337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9930123406526307</v>
+        <v>0.9748796618851651</v>
       </c>
       <c r="D12">
-        <v>0.9918947002631604</v>
+        <v>0.9705900563762724</v>
       </c>
       <c r="E12">
-        <v>1.015455137494735</v>
+        <v>1.05549119530833</v>
       </c>
       <c r="F12">
-        <v>0.9821217416736846</v>
+        <v>0.9362259492081998</v>
       </c>
       <c r="G12">
-        <v>1.027978840021052</v>
+        <v>1.100746511763711</v>
       </c>
       <c r="H12">
-        <v>0.9918947002631604</v>
+        <v>0.9705900563762724</v>
       </c>
       <c r="I12">
-        <v>0.9934722736315806</v>
+        <v>0.9766449281745196</v>
       </c>
       <c r="J12">
-        <v>1.027978840021052</v>
+        <v>1.100746511763711</v>
       </c>
       <c r="K12">
-        <v>0.9918947002631604</v>
+        <v>0.9705900563762724</v>
       </c>
       <c r="L12">
-        <v>0.9934722736315806</v>
+        <v>0.9766449281745196</v>
       </c>
       <c r="M12">
-        <v>1.010725556826316</v>
+        <v>1.038695719969116</v>
       </c>
       <c r="N12">
-        <v>1.010725556826316</v>
+        <v>1.038695719969116</v>
       </c>
       <c r="O12">
-        <v>1.012302083715789</v>
+        <v>1.044294211748854</v>
       </c>
       <c r="P12">
-        <v>1.004448604638598</v>
+        <v>1.015993832104835</v>
       </c>
       <c r="Q12">
-        <v>1.004448604638598</v>
+        <v>1.015993832104835</v>
       </c>
       <c r="R12">
-        <v>1.001310128544738</v>
+        <v>1.004642888172694</v>
       </c>
       <c r="S12">
-        <v>1.001310128544738</v>
+        <v>1.004642888172694</v>
       </c>
       <c r="T12">
-        <v>1.00065583895614</v>
+        <v>1.002429717119366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.004952774491198</v>
+        <v>1.012429888718774</v>
       </c>
       <c r="D13">
-        <v>1.004783402533056</v>
+        <v>1.008734233478577</v>
       </c>
       <c r="E13">
-        <v>0.9891578971248393</v>
+        <v>0.9722039251324605</v>
       </c>
       <c r="F13">
-        <v>1.013176053502898</v>
+        <v>1.03818114603362</v>
       </c>
       <c r="G13">
-        <v>0.9801202567172967</v>
+        <v>0.9516419914579247</v>
       </c>
       <c r="H13">
-        <v>1.004783402533056</v>
+        <v>1.008734233478577</v>
       </c>
       <c r="I13">
-        <v>1.005022473974206</v>
+        <v>1.013950736708664</v>
       </c>
       <c r="J13">
-        <v>0.9801202567172967</v>
+        <v>0.9516419914579247</v>
       </c>
       <c r="K13">
-        <v>1.004783402533056</v>
+        <v>1.008734233478577</v>
       </c>
       <c r="L13">
-        <v>1.005022473974206</v>
+        <v>1.013950736708664</v>
       </c>
       <c r="M13">
-        <v>0.9925713653457511</v>
+        <v>0.9827963640832946</v>
       </c>
       <c r="N13">
-        <v>0.9925713653457511</v>
+        <v>0.9827963640832946</v>
       </c>
       <c r="O13">
-        <v>0.9914335426054471</v>
+        <v>0.9792655510996832</v>
       </c>
       <c r="P13">
-        <v>0.996642044408186</v>
+        <v>0.9914423205483885</v>
       </c>
       <c r="Q13">
-        <v>0.996642044408186</v>
+        <v>0.9914423205483885</v>
       </c>
       <c r="R13">
-        <v>0.9986773839394034</v>
+        <v>0.9957652987809356</v>
       </c>
       <c r="S13">
-        <v>0.9986773839394034</v>
+        <v>0.9957652987809356</v>
       </c>
       <c r="T13">
-        <v>0.9995354763905823</v>
+        <v>0.9995236535883366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9565952000000004</v>
+        <v>0.9930123406526307</v>
       </c>
       <c r="D14">
-        <v>0.9490348699999991</v>
+        <v>0.9918947002631604</v>
       </c>
       <c r="E14">
-        <v>1.0958807</v>
+        <v>1.015455137494735</v>
       </c>
       <c r="F14">
-        <v>0.8899491399999993</v>
+        <v>0.9821217416736846</v>
       </c>
       <c r="G14">
-        <v>1.174102300000001</v>
+        <v>1.027978840021052</v>
       </c>
       <c r="H14">
-        <v>0.9490348699999991</v>
+        <v>0.9918947002631604</v>
       </c>
       <c r="I14">
-        <v>0.9597064399999996</v>
+        <v>0.9934722736315806</v>
       </c>
       <c r="J14">
-        <v>1.174102300000001</v>
+        <v>1.027978840021052</v>
       </c>
       <c r="K14">
-        <v>0.9490348699999991</v>
+        <v>0.9918947002631604</v>
       </c>
       <c r="L14">
-        <v>0.9597064399999996</v>
+        <v>0.9934722736315806</v>
       </c>
       <c r="M14">
-        <v>1.06690437</v>
+        <v>1.010725556826316</v>
       </c>
       <c r="N14">
-        <v>1.06690437</v>
+        <v>1.010725556826316</v>
       </c>
       <c r="O14">
-        <v>1.076563146666667</v>
+        <v>1.012302083715789</v>
       </c>
       <c r="P14">
-        <v>1.027614536666666</v>
+        <v>1.004448604638598</v>
       </c>
       <c r="Q14">
-        <v>1.027614536666666</v>
+        <v>1.004448604638598</v>
       </c>
       <c r="R14">
-        <v>1.00796962</v>
+        <v>1.001310128544738</v>
       </c>
       <c r="S14">
-        <v>1.00796962</v>
+        <v>1.001310128544738</v>
       </c>
       <c r="T14">
-        <v>1.004211441666667</v>
+        <v>1.00065583895614</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0550102</v>
+        <v>1.004952774491198</v>
       </c>
       <c r="D15">
-        <v>1.1248129</v>
+        <v>1.004783402533056</v>
       </c>
       <c r="E15">
-        <v>0.88627042</v>
+        <v>0.9891578971248393</v>
       </c>
       <c r="F15">
-        <v>1.055856</v>
+        <v>1.013176053502898</v>
       </c>
       <c r="G15">
-        <v>0.7563714999999999</v>
+        <v>0.9801202567172967</v>
       </c>
       <c r="H15">
-        <v>1.1248129</v>
+        <v>1.004783402533056</v>
       </c>
       <c r="I15">
-        <v>1.0262848</v>
+        <v>1.005022473974206</v>
       </c>
       <c r="J15">
-        <v>0.7563714999999999</v>
+        <v>0.9801202567172967</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>1.004783402533056</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>1.005022473974206</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>0.9925713653457511</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>0.9925713653457511</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>0.9914335426054471</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>0.996642044408186</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>0.996642044408186</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>0.9986773839394034</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>0.9986773839394034</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>0.9995354763905823</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1134165</v>
+        <v>0.9565952000000004</v>
       </c>
       <c r="D16">
-        <v>1.0643348</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="E16">
-        <v>0.7439369599999999</v>
+        <v>1.0958807</v>
       </c>
       <c r="F16">
-        <v>1.3712984</v>
+        <v>0.8899491399999993</v>
       </c>
       <c r="G16">
-        <v>0.56541078</v>
+        <v>1.174102300000001</v>
       </c>
       <c r="H16">
-        <v>1.0643348</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="I16">
-        <v>1.1336147</v>
+        <v>0.9597064399999996</v>
       </c>
       <c r="J16">
-        <v>0.56541078</v>
+        <v>1.174102300000001</v>
       </c>
       <c r="K16">
-        <v>1.0643348</v>
+        <v>0.9490348699999991</v>
       </c>
       <c r="L16">
-        <v>1.1336147</v>
+        <v>0.9597064399999996</v>
       </c>
       <c r="M16">
-        <v>0.84951274</v>
+        <v>1.06690437</v>
       </c>
       <c r="N16">
-        <v>0.84951274</v>
+        <v>1.06690437</v>
       </c>
       <c r="O16">
-        <v>0.8143208133333332</v>
+        <v>1.076563146666667</v>
       </c>
       <c r="P16">
-        <v>0.9211200933333332</v>
+        <v>1.027614536666666</v>
       </c>
       <c r="Q16">
-        <v>0.9211200933333332</v>
+        <v>1.027614536666666</v>
       </c>
       <c r="R16">
-        <v>0.95692377</v>
+        <v>1.00796962</v>
       </c>
       <c r="S16">
-        <v>0.95692377</v>
+        <v>1.00796962</v>
       </c>
       <c r="T16">
-        <v>0.99866869</v>
+        <v>1.004211441666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0515197</v>
+        <v>1.0550102</v>
       </c>
       <c r="D17">
-        <v>1.072276</v>
+        <v>1.1248129</v>
       </c>
       <c r="E17">
-        <v>0.88909391</v>
+        <v>0.88627042</v>
       </c>
       <c r="F17">
-        <v>1.1094311</v>
+        <v>1.055856</v>
       </c>
       <c r="G17">
-        <v>0.78643527</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H17">
-        <v>1.072276</v>
+        <v>1.1248129</v>
       </c>
       <c r="I17">
-        <v>1.0429781</v>
+        <v>1.0262848</v>
       </c>
       <c r="J17">
-        <v>0.78643527</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K17">
-        <v>1.072276</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>1.0429781</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>0.9147066850000001</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>0.9147066850000001</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>0.9061690933333334</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>0.9672297900000001</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>0.9672297900000001</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>0.9934913425</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>0.9934913425</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>0.9919556800000001</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9849346558904108</v>
+        <v>1.1134165</v>
       </c>
       <c r="D18">
-        <v>0.9870405756164383</v>
+        <v>1.0643348</v>
       </c>
       <c r="E18">
-        <v>1.033740936164383</v>
+        <v>0.7439369599999999</v>
       </c>
       <c r="F18">
-        <v>0.9557608646575342</v>
+        <v>1.3712984</v>
       </c>
       <c r="G18">
-        <v>1.058887536712328</v>
+        <v>0.56541078</v>
       </c>
       <c r="H18">
-        <v>0.9870405756164383</v>
+        <v>1.0643348</v>
       </c>
       <c r="I18">
-        <v>0.9840680405479449</v>
+        <v>1.1336147</v>
       </c>
       <c r="J18">
-        <v>1.058887536712328</v>
+        <v>0.56541078</v>
       </c>
       <c r="K18">
-        <v>0.9870405756164383</v>
+        <v>1.0643348</v>
       </c>
       <c r="L18">
-        <v>0.9840680405479449</v>
+        <v>1.1336147</v>
       </c>
       <c r="M18">
-        <v>1.021477788630137</v>
+        <v>0.84951274</v>
       </c>
       <c r="N18">
-        <v>1.021477788630137</v>
+        <v>0.84951274</v>
       </c>
       <c r="O18">
-        <v>1.025565504474885</v>
+        <v>0.8143208133333332</v>
       </c>
       <c r="P18">
-        <v>1.009998717625571</v>
+        <v>0.9211200933333332</v>
       </c>
       <c r="Q18">
-        <v>1.009998717625571</v>
+        <v>0.9211200933333332</v>
       </c>
       <c r="R18">
-        <v>1.004259182123288</v>
+        <v>0.95692377</v>
       </c>
       <c r="S18">
-        <v>1.004259182123288</v>
+        <v>0.95692377</v>
       </c>
       <c r="T18">
-        <v>1.00073876826484</v>
+        <v>0.99866869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.01822226</v>
+        <v>1.0515197</v>
       </c>
       <c r="D19">
-        <v>0.9971749852631575</v>
+        <v>1.072276</v>
       </c>
       <c r="E19">
-        <v>0.957010027368421</v>
+        <v>0.88909391</v>
       </c>
       <c r="F19">
-        <v>1.078447545263158</v>
+        <v>1.1094311</v>
       </c>
       <c r="G19">
-        <v>0.9354557094736843</v>
+        <v>0.78643527</v>
       </c>
       <c r="H19">
-        <v>0.9971749852631575</v>
+        <v>1.072276</v>
       </c>
       <c r="I19">
-        <v>1.026883695789474</v>
+        <v>1.0429781</v>
       </c>
       <c r="J19">
-        <v>0.9354557094736843</v>
+        <v>0.78643527</v>
       </c>
       <c r="K19">
-        <v>0.9971749852631575</v>
+        <v>1.072276</v>
       </c>
       <c r="L19">
-        <v>1.026883695789474</v>
+        <v>1.0429781</v>
       </c>
       <c r="M19">
-        <v>0.9811697026315791</v>
+        <v>0.9147066850000001</v>
       </c>
       <c r="N19">
-        <v>0.9811697026315791</v>
+        <v>0.9147066850000001</v>
       </c>
       <c r="O19">
-        <v>0.9731164775438597</v>
+        <v>0.9061690933333334</v>
       </c>
       <c r="P19">
-        <v>0.9865047968421052</v>
+        <v>0.9672297900000001</v>
       </c>
       <c r="Q19">
-        <v>0.9865047968421052</v>
+        <v>0.9672297900000001</v>
       </c>
       <c r="R19">
-        <v>0.9891723439473683</v>
+        <v>0.9934913425</v>
       </c>
       <c r="S19">
-        <v>0.9891723439473683</v>
+        <v>0.9934913425</v>
       </c>
       <c r="T19">
-        <v>1.002199037192982</v>
+        <v>0.9919556800000001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.042962956842105</v>
+        <v>0.9849346558904108</v>
       </c>
       <c r="D20">
-        <v>1.059571243157895</v>
+        <v>0.9870405756164383</v>
       </c>
       <c r="E20">
-        <v>0.9073919410526314</v>
+        <v>1.033740936164383</v>
       </c>
       <c r="F20">
-        <v>1.092339352105263</v>
+        <v>0.9557608646575342</v>
       </c>
       <c r="G20">
-        <v>0.8222282600000002</v>
+        <v>1.058887536712328</v>
       </c>
       <c r="H20">
-        <v>1.059571243157895</v>
+        <v>0.9870405756164383</v>
       </c>
       <c r="I20">
-        <v>1.036128273157895</v>
+        <v>0.9840680405479449</v>
       </c>
       <c r="J20">
-        <v>0.8222282600000002</v>
+        <v>1.058887536712328</v>
       </c>
       <c r="K20">
-        <v>1.059571243157895</v>
+        <v>0.9870405756164383</v>
       </c>
       <c r="L20">
-        <v>1.036128273157895</v>
+        <v>0.9840680405479449</v>
       </c>
       <c r="M20">
-        <v>0.9291782665789474</v>
+        <v>1.021477788630137</v>
       </c>
       <c r="N20">
-        <v>0.9291782665789474</v>
+        <v>1.021477788630137</v>
       </c>
       <c r="O20">
-        <v>0.9219161580701755</v>
+        <v>1.025565504474885</v>
       </c>
       <c r="P20">
-        <v>0.9726425921052632</v>
+        <v>1.009998717625571</v>
       </c>
       <c r="Q20">
-        <v>0.9726425921052632</v>
+        <v>1.009998717625571</v>
       </c>
       <c r="R20">
-        <v>0.9943747548684211</v>
+        <v>1.004259182123288</v>
       </c>
       <c r="S20">
-        <v>0.9943747548684211</v>
+        <v>1.004259182123288</v>
       </c>
       <c r="T20">
-        <v>0.9934370043859649</v>
+        <v>1.00073876826484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9804855012770606</v>
+        <v>1.01822226</v>
       </c>
       <c r="D21">
-        <v>0.95331573258043</v>
+        <v>0.9971749852631575</v>
       </c>
       <c r="E21">
-        <v>1.039289837741551</v>
+        <v>0.957010027368421</v>
       </c>
       <c r="F21">
-        <v>0.9861396093977098</v>
+        <v>1.078447545263158</v>
       </c>
       <c r="G21">
-        <v>1.088649567896216</v>
+        <v>0.9354557094736843</v>
       </c>
       <c r="H21">
-        <v>0.95331573258043</v>
+        <v>0.9971749852631575</v>
       </c>
       <c r="I21">
-        <v>0.9916664802301325</v>
+        <v>1.026883695789474</v>
       </c>
       <c r="J21">
-        <v>1.088649567896216</v>
+        <v>0.9354557094736843</v>
       </c>
       <c r="K21">
-        <v>0.95331573258043</v>
+        <v>0.9971749852631575</v>
       </c>
       <c r="L21">
-        <v>0.9916664802301325</v>
+        <v>1.026883695789474</v>
       </c>
       <c r="M21">
-        <v>1.040158024063174</v>
+        <v>0.9811697026315791</v>
       </c>
       <c r="N21">
-        <v>1.040158024063174</v>
+        <v>0.9811697026315791</v>
       </c>
       <c r="O21">
-        <v>1.039868628622633</v>
+        <v>0.9731164775438597</v>
       </c>
       <c r="P21">
-        <v>1.011210593568926</v>
+        <v>0.9865047968421052</v>
       </c>
       <c r="Q21">
-        <v>1.011210593568926</v>
+        <v>0.9865047968421052</v>
       </c>
       <c r="R21">
-        <v>0.996736878321802</v>
+        <v>0.9891723439473683</v>
       </c>
       <c r="S21">
-        <v>0.996736878321802</v>
+        <v>0.9891723439473683</v>
       </c>
       <c r="T21">
-        <v>1.006591121520517</v>
+        <v>1.002199037192982</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9961481673531385</v>
+        <v>1.042962956842105</v>
       </c>
       <c r="D22">
-        <v>1.006923959725468</v>
+        <v>1.059571243157895</v>
       </c>
       <c r="E22">
-        <v>1.010165461286561</v>
+        <v>0.9073919410526314</v>
       </c>
       <c r="F22">
-        <v>0.9737194417589302</v>
+        <v>1.092339352105263</v>
       </c>
       <c r="G22">
-        <v>1.010773047747016</v>
+        <v>0.8222282600000002</v>
       </c>
       <c r="H22">
-        <v>1.006923959725468</v>
+        <v>1.059571243157895</v>
       </c>
       <c r="I22">
-        <v>0.9917136827737578</v>
+        <v>1.036128273157895</v>
       </c>
       <c r="J22">
-        <v>1.010773047747016</v>
+        <v>0.8222282600000002</v>
       </c>
       <c r="K22">
-        <v>1.006923959725468</v>
+        <v>1.059571243157895</v>
       </c>
       <c r="L22">
-        <v>0.9917136827737578</v>
+        <v>1.036128273157895</v>
       </c>
       <c r="M22">
-        <v>1.001243365260387</v>
+        <v>0.9291782665789474</v>
       </c>
       <c r="N22">
-        <v>1.001243365260387</v>
+        <v>0.9291782665789474</v>
       </c>
       <c r="O22">
-        <v>1.004217397269112</v>
+        <v>0.9219161580701755</v>
       </c>
       <c r="P22">
-        <v>1.003136896748747</v>
+        <v>0.9726425921052632</v>
       </c>
       <c r="Q22">
-        <v>1.003136896748747</v>
+        <v>0.9726425921052632</v>
       </c>
       <c r="R22">
-        <v>1.004083662492927</v>
+        <v>0.9943747548684211</v>
       </c>
       <c r="S22">
-        <v>1.004083662492927</v>
+        <v>0.9943747548684211</v>
       </c>
       <c r="T22">
-        <v>0.9982406267741452</v>
+        <v>0.9934370043859649</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9975462344759496</v>
+        <v>0.9804855012770606</v>
       </c>
       <c r="D23">
-        <v>1.001372859618926</v>
+        <v>0.95331573258043</v>
       </c>
       <c r="E23">
-        <v>1.00605623982872</v>
+        <v>1.039289837741551</v>
       </c>
       <c r="F23">
-        <v>0.9875703724547737</v>
+        <v>0.9861396093977098</v>
       </c>
       <c r="G23">
-        <v>1.008068756446385</v>
+        <v>1.088649567896216</v>
       </c>
       <c r="H23">
-        <v>1.001372859618926</v>
+        <v>0.95331573258043</v>
       </c>
       <c r="I23">
-        <v>0.9959714897542213</v>
+        <v>0.9916664802301325</v>
       </c>
       <c r="J23">
-        <v>1.008068756446385</v>
+        <v>1.088649567896216</v>
       </c>
       <c r="K23">
-        <v>1.001372859618926</v>
+        <v>0.95331573258043</v>
       </c>
       <c r="L23">
-        <v>0.9959714897542213</v>
+        <v>0.9916664802301325</v>
       </c>
       <c r="M23">
-        <v>1.002020123100303</v>
+        <v>1.040158024063174</v>
       </c>
       <c r="N23">
-        <v>1.002020123100303</v>
+        <v>1.040158024063174</v>
       </c>
       <c r="O23">
-        <v>1.003365495343109</v>
+        <v>1.039868628622633</v>
       </c>
       <c r="P23">
-        <v>1.001804368606511</v>
+        <v>1.011210593568926</v>
       </c>
       <c r="Q23">
-        <v>1.001804368606511</v>
+        <v>1.011210593568926</v>
       </c>
       <c r="R23">
-        <v>1.001696491359614</v>
+        <v>0.996736878321802</v>
       </c>
       <c r="S23">
-        <v>1.001696491359614</v>
+        <v>0.996736878321802</v>
       </c>
       <c r="T23">
-        <v>0.9994309920964958</v>
+        <v>1.006591121520517</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.999069688167224</v>
+        <v>0.9961481673531385</v>
       </c>
       <c r="D24">
-        <v>0.9976896484598996</v>
+        <v>1.006923959725468</v>
       </c>
       <c r="E24">
-        <v>1.00164952496339</v>
+        <v>1.010165461286561</v>
       </c>
       <c r="F24">
-        <v>1.000203324007115</v>
+        <v>0.9737194417589302</v>
       </c>
       <c r="G24">
-        <v>1.004631701824764</v>
+        <v>1.010773047747016</v>
       </c>
       <c r="H24">
-        <v>0.9976896484598996</v>
+        <v>1.006923959725468</v>
       </c>
       <c r="I24">
-        <v>0.999637608767981</v>
+        <v>0.9917136827737578</v>
       </c>
       <c r="J24">
-        <v>1.004631701824764</v>
+        <v>1.010773047747016</v>
       </c>
       <c r="K24">
-        <v>0.9976896484598996</v>
+        <v>1.006923959725468</v>
       </c>
       <c r="L24">
-        <v>0.999637608767981</v>
+        <v>0.9917136827737578</v>
       </c>
       <c r="M24">
-        <v>1.002134655296373</v>
+        <v>1.001243365260387</v>
       </c>
       <c r="N24">
-        <v>1.002134655296373</v>
+        <v>1.001243365260387</v>
       </c>
       <c r="O24">
-        <v>1.001972945185378</v>
+        <v>1.004217397269112</v>
       </c>
       <c r="P24">
-        <v>1.000652986350882</v>
+        <v>1.003136896748747</v>
       </c>
       <c r="Q24">
-        <v>1.000652986350882</v>
+        <v>1.003136896748747</v>
       </c>
       <c r="R24">
-        <v>0.999912151878136</v>
+        <v>1.004083662492927</v>
       </c>
       <c r="S24">
-        <v>0.999912151878136</v>
+        <v>1.004083662492927</v>
       </c>
       <c r="T24">
-        <v>1.000480249365062</v>
+        <v>0.9982406267741452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.047464443399467</v>
+        <v>0.9975462344759496</v>
       </c>
       <c r="D25">
-        <v>1.072396956087808</v>
+        <v>1.001372859618926</v>
       </c>
       <c r="E25">
-        <v>0.8983603002206217</v>
+        <v>1.00605623982872</v>
       </c>
       <c r="F25">
-        <v>1.093503787102327</v>
+        <v>0.9875703724547737</v>
       </c>
       <c r="G25">
-        <v>0.80140599766924</v>
+        <v>1.008068756446385</v>
       </c>
       <c r="H25">
-        <v>1.072396956087808</v>
+        <v>1.001372859618926</v>
       </c>
       <c r="I25">
-        <v>1.037204155712076</v>
+        <v>0.9959714897542213</v>
       </c>
       <c r="J25">
-        <v>0.80140599766924</v>
+        <v>1.008068756446385</v>
       </c>
       <c r="K25">
-        <v>1.072396956087808</v>
+        <v>1.001372859618926</v>
       </c>
       <c r="L25">
-        <v>1.037204155712076</v>
+        <v>0.9959714897542213</v>
       </c>
       <c r="M25">
-        <v>0.9193050766906579</v>
+        <v>1.002020123100303</v>
       </c>
       <c r="N25">
-        <v>0.9193050766906579</v>
+        <v>1.002020123100303</v>
       </c>
       <c r="O25">
-        <v>0.9123234845339793</v>
+        <v>1.003365495343109</v>
       </c>
       <c r="P25">
-        <v>0.9703357031563747</v>
+        <v>1.001804368606511</v>
       </c>
       <c r="Q25">
-        <v>0.9703357031563747</v>
+        <v>1.001804368606511</v>
       </c>
       <c r="R25">
-        <v>0.9958510163892331</v>
+        <v>1.001696491359614</v>
       </c>
       <c r="S25">
-        <v>0.9958510163892331</v>
+        <v>1.001696491359614</v>
       </c>
       <c r="T25">
-        <v>0.9917226066985899</v>
+        <v>0.9994309920964958</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.011495768402609</v>
+        <v>0.999069688167224</v>
       </c>
       <c r="D26">
-        <v>1.000896832837664</v>
+        <v>0.9976896484598996</v>
       </c>
       <c r="E26">
-        <v>0.9737590419203366</v>
+        <v>1.00164952496339</v>
       </c>
       <c r="F26">
-        <v>1.043896766154318</v>
+        <v>1.000203324007115</v>
       </c>
       <c r="G26">
-        <v>0.9573227469608621</v>
+        <v>1.004631701824764</v>
       </c>
       <c r="H26">
-        <v>1.000896832837664</v>
+        <v>0.9976896484598996</v>
       </c>
       <c r="I26">
-        <v>1.015857465935288</v>
+        <v>0.999637608767981</v>
       </c>
       <c r="J26">
-        <v>0.9573227469608621</v>
+        <v>1.004631701824764</v>
       </c>
       <c r="K26">
-        <v>1.000896832837664</v>
+        <v>0.9976896484598996</v>
       </c>
       <c r="L26">
-        <v>1.015857465935288</v>
+        <v>0.999637608767981</v>
       </c>
       <c r="M26">
-        <v>0.9865901064480749</v>
+        <v>1.002134655296373</v>
       </c>
       <c r="N26">
-        <v>0.9865901064480749</v>
+        <v>1.002134655296373</v>
       </c>
       <c r="O26">
-        <v>0.9823130849388289</v>
+        <v>1.001972945185378</v>
       </c>
       <c r="P26">
-        <v>0.9913590152446045</v>
+        <v>1.000652986350882</v>
       </c>
       <c r="Q26">
-        <v>0.9913590152446045</v>
+        <v>1.000652986350882</v>
       </c>
       <c r="R26">
-        <v>0.9937434696428693</v>
+        <v>0.999912151878136</v>
       </c>
       <c r="S26">
-        <v>0.9937434696428693</v>
+        <v>0.999912151878136</v>
       </c>
       <c r="T26">
-        <v>1.000538103701846</v>
+        <v>1.000480249365062</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.997288518835915</v>
+        <v>1.047464443399467</v>
       </c>
       <c r="D27">
-        <v>0.9981898270865347</v>
+        <v>1.072396956087808</v>
       </c>
       <c r="E27">
-        <v>1.005575025028094</v>
+        <v>0.8983603002206217</v>
       </c>
       <c r="F27">
-        <v>0.9932973393648273</v>
+        <v>1.093503787102327</v>
       </c>
       <c r="G27">
-        <v>1.011391823810548</v>
+        <v>0.80140599766924</v>
       </c>
       <c r="H27">
-        <v>0.9981898270865347</v>
+        <v>1.072396956087808</v>
       </c>
       <c r="I27">
-        <v>0.9969176110335771</v>
+        <v>1.037204155712076</v>
       </c>
       <c r="J27">
-        <v>1.011391823810548</v>
+        <v>0.80140599766924</v>
       </c>
       <c r="K27">
-        <v>0.9981898270865347</v>
+        <v>1.072396956087808</v>
       </c>
       <c r="L27">
-        <v>0.9969176110335771</v>
+        <v>1.037204155712076</v>
       </c>
       <c r="M27">
-        <v>1.004154717422062</v>
+        <v>0.9193050766906579</v>
       </c>
       <c r="N27">
-        <v>1.004154717422062</v>
+        <v>0.9193050766906579</v>
       </c>
       <c r="O27">
-        <v>1.00462815329074</v>
+        <v>0.9123234845339793</v>
       </c>
       <c r="P27">
-        <v>1.002166420643553</v>
+        <v>0.9703357031563747</v>
       </c>
       <c r="Q27">
-        <v>1.002166420643553</v>
+        <v>0.9703357031563747</v>
       </c>
       <c r="R27">
-        <v>1.001172272254298</v>
+        <v>0.9958510163892331</v>
       </c>
       <c r="S27">
-        <v>1.001172272254298</v>
+        <v>0.9958510163892331</v>
       </c>
       <c r="T27">
-        <v>1.000443357526583</v>
+        <v>0.9917226066985899</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.007632642201768</v>
+        <v>1.011495768402609</v>
       </c>
       <c r="D28">
-        <v>1.007761189959991</v>
+        <v>1.000896832837664</v>
       </c>
       <c r="E28">
-        <v>0.9832530533685493</v>
+        <v>0.9737590419203366</v>
       </c>
       <c r="F28">
-        <v>1.020076074922675</v>
+        <v>1.043896766154318</v>
       </c>
       <c r="G28">
-        <v>0.9693708486522077</v>
+        <v>0.9573227469608621</v>
       </c>
       <c r="H28">
-        <v>1.007761189959991</v>
+        <v>1.000896832837664</v>
       </c>
       <c r="I28">
-        <v>1.007579736868764</v>
+        <v>1.015857465935288</v>
       </c>
       <c r="J28">
-        <v>0.9693708486522077</v>
+        <v>0.9573227469608621</v>
       </c>
       <c r="K28">
-        <v>1.007761189959991</v>
+        <v>1.000896832837664</v>
       </c>
       <c r="L28">
-        <v>1.007579736868764</v>
+        <v>1.015857465935288</v>
       </c>
       <c r="M28">
-        <v>0.9884752927604861</v>
+        <v>0.9865901064480749</v>
       </c>
       <c r="N28">
-        <v>0.9884752927604861</v>
+        <v>0.9865901064480749</v>
       </c>
       <c r="O28">
-        <v>0.9867345462965073</v>
+        <v>0.9823130849388289</v>
       </c>
       <c r="P28">
-        <v>0.994903925160321</v>
+        <v>0.9913590152446045</v>
       </c>
       <c r="Q28">
-        <v>0.994903925160321</v>
+        <v>0.9913590152446045</v>
       </c>
       <c r="R28">
-        <v>0.9981182413602383</v>
+        <v>0.9937434696428693</v>
       </c>
       <c r="S28">
-        <v>0.9981182413602383</v>
+        <v>0.9937434696428693</v>
       </c>
       <c r="T28">
-        <v>0.9992789243289923</v>
+        <v>1.000538103701846</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.997288518835915</v>
+      </c>
+      <c r="D29">
+        <v>0.9981898270865347</v>
+      </c>
+      <c r="E29">
+        <v>1.005575025028094</v>
+      </c>
+      <c r="F29">
+        <v>0.9932973393648273</v>
+      </c>
+      <c r="G29">
+        <v>1.011391823810548</v>
+      </c>
+      <c r="H29">
+        <v>0.9981898270865347</v>
+      </c>
+      <c r="I29">
+        <v>0.9969176110335771</v>
+      </c>
+      <c r="J29">
+        <v>1.011391823810548</v>
+      </c>
+      <c r="K29">
+        <v>0.9981898270865347</v>
+      </c>
+      <c r="L29">
+        <v>0.9969176110335771</v>
+      </c>
+      <c r="M29">
+        <v>1.004154717422062</v>
+      </c>
+      <c r="N29">
+        <v>1.004154717422062</v>
+      </c>
+      <c r="O29">
+        <v>1.00462815329074</v>
+      </c>
+      <c r="P29">
+        <v>1.002166420643553</v>
+      </c>
+      <c r="Q29">
+        <v>1.002166420643553</v>
+      </c>
+      <c r="R29">
+        <v>1.001172272254298</v>
+      </c>
+      <c r="S29">
+        <v>1.001172272254298</v>
+      </c>
+      <c r="T29">
+        <v>1.000443357526583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.007632642201768</v>
+      </c>
+      <c r="D30">
+        <v>1.007761189959991</v>
+      </c>
+      <c r="E30">
+        <v>0.9832530533685493</v>
+      </c>
+      <c r="F30">
+        <v>1.020076074922675</v>
+      </c>
+      <c r="G30">
+        <v>0.9693708486522077</v>
+      </c>
+      <c r="H30">
+        <v>1.007761189959991</v>
+      </c>
+      <c r="I30">
+        <v>1.007579736868764</v>
+      </c>
+      <c r="J30">
+        <v>0.9693708486522077</v>
+      </c>
+      <c r="K30">
+        <v>1.007761189959991</v>
+      </c>
+      <c r="L30">
+        <v>1.007579736868764</v>
+      </c>
+      <c r="M30">
+        <v>0.9884752927604861</v>
+      </c>
+      <c r="N30">
+        <v>0.9884752927604861</v>
+      </c>
+      <c r="O30">
+        <v>0.9867345462965073</v>
+      </c>
+      <c r="P30">
+        <v>0.994903925160321</v>
+      </c>
+      <c r="Q30">
+        <v>0.994903925160321</v>
+      </c>
+      <c r="R30">
+        <v>0.9981182413602383</v>
+      </c>
+      <c r="S30">
+        <v>0.9981182413602383</v>
+      </c>
+      <c r="T30">
+        <v>0.9992789243289923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.015552678210941</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.022287625310784</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.966444820919612</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.032860145547105</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.935588924828513</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.022287625310784</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.012781073982057</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.935588924828513</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.022287625310784</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.012781073982057</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9741849994052849</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9741849994052849</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9716049399100606</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9902192080404514</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9902192080404514</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9982363123580347</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9982363123580347</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9975858781331688</v>
       </c>
     </row>
